--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2788.637632758383</v>
+        <v>2910.423046694573</v>
       </c>
       <c r="AB2" t="n">
-        <v>3815.537035149856</v>
+        <v>3982.169211290631</v>
       </c>
       <c r="AC2" t="n">
-        <v>3451.387535654872</v>
+        <v>3602.116570774493</v>
       </c>
       <c r="AD2" t="n">
-        <v>2788637.632758384</v>
+        <v>2910423.046694573</v>
       </c>
       <c r="AE2" t="n">
-        <v>3815537.035149856</v>
+        <v>3982169.211290631</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.814737012608933e-07</v>
+        <v>1.445930948423754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.44661458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3451387.535654872</v>
+        <v>3602116.570774493</v>
       </c>
     </row>
     <row r="3">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1332.584915067941</v>
+        <v>1405.673267403989</v>
       </c>
       <c r="AB3" t="n">
-        <v>1823.301470293255</v>
+        <v>1923.304178389973</v>
       </c>
       <c r="AC3" t="n">
-        <v>1649.288136988152</v>
+        <v>1739.746726978801</v>
       </c>
       <c r="AD3" t="n">
-        <v>1332584.915067941</v>
+        <v>1405673.267403989</v>
       </c>
       <c r="AE3" t="n">
-        <v>1823301.470293255</v>
+        <v>1923304.178389973</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.231217885128722e-06</v>
+        <v>2.278075438096063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.34212239583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1649288.136988152</v>
+        <v>1739746.726978801</v>
       </c>
     </row>
     <row r="4">
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1078.883971734589</v>
+        <v>1151.972234562086</v>
       </c>
       <c r="AB4" t="n">
-        <v>1476.17664712887</v>
+        <v>1576.179232756039</v>
       </c>
       <c r="AC4" t="n">
-        <v>1335.292419753826</v>
+        <v>1425.750898963249</v>
       </c>
       <c r="AD4" t="n">
-        <v>1078883.971734589</v>
+        <v>1151972.234562086</v>
       </c>
       <c r="AE4" t="n">
-        <v>1476176.64712887</v>
+        <v>1576179.232756039</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.40319811902628e-06</v>
+        <v>2.596283897713333e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.830078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1335292.419753826</v>
+        <v>1425750.898963249</v>
       </c>
     </row>
     <row r="5">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>981.7241511517121</v>
+        <v>1042.616902874083</v>
       </c>
       <c r="AB5" t="n">
-        <v>1343.238294218612</v>
+        <v>1426.554443523769</v>
       </c>
       <c r="AC5" t="n">
-        <v>1215.041516665174</v>
+        <v>1290.406089615596</v>
       </c>
       <c r="AD5" t="n">
-        <v>981724.1511517122</v>
+        <v>1042616.902874083</v>
       </c>
       <c r="AE5" t="n">
-        <v>1343238.294218612</v>
+        <v>1426554.443523769</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.495443760226491e-06</v>
+        <v>2.766962485173628e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.16276041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1215041.516665173</v>
+        <v>1290406.089615596</v>
       </c>
     </row>
     <row r="6">
@@ -5601,28 +5601,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>914.3293421264443</v>
+        <v>975.3073451948352</v>
       </c>
       <c r="AB6" t="n">
-        <v>1251.025743261108</v>
+        <v>1334.458537218914</v>
       </c>
       <c r="AC6" t="n">
-        <v>1131.629602149926</v>
+        <v>1207.09968735106</v>
       </c>
       <c r="AD6" t="n">
-        <v>914329.3421264443</v>
+        <v>975307.3451948352</v>
       </c>
       <c r="AE6" t="n">
-        <v>1251025.743261108</v>
+        <v>1334458.537218914</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.552116942623786e-06</v>
+        <v>2.87182271046553e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.7900390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1131629.602149926</v>
+        <v>1207099.68735106</v>
       </c>
     </row>
     <row r="7">
@@ -5707,28 +5707,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>877.1997875344513</v>
+        <v>938.1777906028422</v>
       </c>
       <c r="AB7" t="n">
-        <v>1200.223448628002</v>
+        <v>1283.656242585807</v>
       </c>
       <c r="AC7" t="n">
-        <v>1085.675807215134</v>
+        <v>1161.145892416269</v>
       </c>
       <c r="AD7" t="n">
-        <v>877199.7875344512</v>
+        <v>938177.7906028421</v>
       </c>
       <c r="AE7" t="n">
-        <v>1200223.448628002</v>
+        <v>1283656.242585807</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.591424042770839e-06</v>
+        <v>2.944551136903571e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.549153645833334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1085675.807215134</v>
+        <v>1161145.892416269</v>
       </c>
     </row>
     <row r="8">
@@ -5813,28 +5813,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>851.1007393596486</v>
+        <v>911.9081502274473</v>
       </c>
       <c r="AB8" t="n">
-        <v>1164.513579506493</v>
+        <v>1247.712961689452</v>
       </c>
       <c r="AC8" t="n">
-        <v>1053.374037883467</v>
+        <v>1128.632987801951</v>
       </c>
       <c r="AD8" t="n">
-        <v>851100.7393596487</v>
+        <v>911908.1502274473</v>
       </c>
       <c r="AE8" t="n">
-        <v>1164513.579506493</v>
+        <v>1247712.961689452</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.61793999631422e-06</v>
+        <v>2.993612593218068e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.392903645833334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1053374.037883467</v>
+        <v>1128632.987801951</v>
       </c>
     </row>
     <row r="9">
@@ -5919,28 +5919,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>829.78834042323</v>
+        <v>890.5957512910287</v>
       </c>
       <c r="AB9" t="n">
-        <v>1135.353015045003</v>
+        <v>1218.552397227962</v>
       </c>
       <c r="AC9" t="n">
-        <v>1026.996516767072</v>
+        <v>1102.255466685556</v>
       </c>
       <c r="AD9" t="n">
-        <v>829788.34042323</v>
+        <v>890595.7512910287</v>
       </c>
       <c r="AE9" t="n">
-        <v>1135353.015045003</v>
+        <v>1218552.397227962</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.640441210412651e-06</v>
+        <v>3.035245730442695e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.264322916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1026996.516767072</v>
+        <v>1102255.466685556</v>
       </c>
     </row>
     <row r="10">
@@ -6025,28 +6025,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>811.1387965632156</v>
+        <v>859.9212885264794</v>
       </c>
       <c r="AB10" t="n">
-        <v>1109.835886375924</v>
+        <v>1176.582244011717</v>
       </c>
       <c r="AC10" t="n">
-        <v>1003.914707044655</v>
+        <v>1064.290885986789</v>
       </c>
       <c r="AD10" t="n">
-        <v>811138.7965632156</v>
+        <v>859921.2885264794</v>
       </c>
       <c r="AE10" t="n">
-        <v>1109835.886375924</v>
+        <v>1176582.244011717</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.658367488864514e-06</v>
+        <v>3.068414038937003e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.163411458333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1003914.707044655</v>
+        <v>1064290.885986789</v>
       </c>
     </row>
     <row r="11">
@@ -6131,28 +6131,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>795.7001597661911</v>
+        <v>844.4826517294549</v>
       </c>
       <c r="AB11" t="n">
-        <v>1088.712062405649</v>
+        <v>1155.458420041442</v>
       </c>
       <c r="AC11" t="n">
-        <v>984.8069111866299</v>
+        <v>1045.183090128764</v>
       </c>
       <c r="AD11" t="n">
-        <v>795700.159766191</v>
+        <v>844482.6517294549</v>
       </c>
       <c r="AE11" t="n">
-        <v>1088712.062405649</v>
+        <v>1155458.420041442</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.671438733568998e-06</v>
+        <v>3.09259926388077e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.091796875</v>
       </c>
       <c r="AH11" t="n">
-        <v>984806.9111866299</v>
+        <v>1045183.090128764</v>
       </c>
     </row>
     <row r="12">
@@ -6237,28 +6237,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>779.7178212189984</v>
+        <v>828.5003131822622</v>
       </c>
       <c r="AB12" t="n">
-        <v>1066.844321714367</v>
+        <v>1133.590679350159</v>
       </c>
       <c r="AC12" t="n">
-        <v>965.0261969753562</v>
+        <v>1025.40237591749</v>
       </c>
       <c r="AD12" t="n">
-        <v>779717.8212189984</v>
+        <v>828500.3131822621</v>
       </c>
       <c r="AE12" t="n">
-        <v>1066844.321714367</v>
+        <v>1133590.679350159</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.683296219836636e-06</v>
+        <v>3.114538717936901e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.0283203125</v>
       </c>
       <c r="AH12" t="n">
-        <v>965026.1969753562</v>
+        <v>1025402.37591749</v>
       </c>
     </row>
     <row r="13">
@@ -6343,28 +6343,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>755.5376656969026</v>
+        <v>816.4303279107218</v>
       </c>
       <c r="AB13" t="n">
-        <v>1033.759966175861</v>
+        <v>1117.075993011469</v>
       </c>
       <c r="AC13" t="n">
-        <v>935.099365895261</v>
+        <v>1010.463828064457</v>
       </c>
       <c r="AD13" t="n">
-        <v>755537.6656969027</v>
+        <v>816430.3279107218</v>
       </c>
       <c r="AE13" t="n">
-        <v>1033759.966175861</v>
+        <v>1117075.993011469</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.691885894928154e-06</v>
+        <v>3.13043186575709e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.981119791666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>935099.3658952611</v>
+        <v>1010463.828064457</v>
       </c>
     </row>
     <row r="14">
@@ -6449,28 +6449,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>741.8361502780585</v>
+        <v>802.7288124918779</v>
       </c>
       <c r="AB14" t="n">
-        <v>1015.012948311599</v>
+        <v>1098.328975147208</v>
       </c>
       <c r="AC14" t="n">
-        <v>918.1415371043598</v>
+        <v>993.5059992735557</v>
       </c>
       <c r="AD14" t="n">
-        <v>741836.1502780585</v>
+        <v>802728.8124918778</v>
       </c>
       <c r="AE14" t="n">
-        <v>1015012.948311599</v>
+        <v>1098328.975147208</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.700008739851654e-06</v>
+        <v>3.145461255543574e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.938802083333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>918141.5371043598</v>
+        <v>993505.9992735557</v>
       </c>
     </row>
     <row r="15">
@@ -6555,28 +6555,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>733.0281243659508</v>
+        <v>793.92078657977</v>
       </c>
       <c r="AB15" t="n">
-        <v>1002.961418675975</v>
+        <v>1086.277445511583</v>
       </c>
       <c r="AC15" t="n">
-        <v>907.2401885427315</v>
+        <v>982.6046507119274</v>
       </c>
       <c r="AD15" t="n">
-        <v>733028.1243659508</v>
+        <v>793920.78657977</v>
       </c>
       <c r="AE15" t="n">
-        <v>1002961.418675975</v>
+        <v>1086277.445511583</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.706264264103085e-06</v>
+        <v>3.157035613195233e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH15" t="n">
-        <v>907240.1885427316</v>
+        <v>982604.6507119274</v>
       </c>
     </row>
     <row r="16">
@@ -6661,28 +6661,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>718.9737332526064</v>
+        <v>779.8663954664257</v>
       </c>
       <c r="AB16" t="n">
-        <v>983.7315807187215</v>
+        <v>1067.047607554329</v>
       </c>
       <c r="AC16" t="n">
-        <v>889.845619330871</v>
+        <v>965.2100815000668</v>
       </c>
       <c r="AD16" t="n">
-        <v>718973.7332526064</v>
+        <v>779866.3954664257</v>
       </c>
       <c r="AE16" t="n">
-        <v>983731.5807187215</v>
+        <v>1067047.60755433</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.713733546791361e-06</v>
+        <v>3.170855741734529e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH16" t="n">
-        <v>889845.619330871</v>
+        <v>965210.0815000668</v>
       </c>
     </row>
     <row r="17">
@@ -6767,28 +6767,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>708.667119055013</v>
+        <v>769.5597812688324</v>
       </c>
       <c r="AB17" t="n">
-        <v>969.6296164778469</v>
+        <v>1052.945643313455</v>
       </c>
       <c r="AC17" t="n">
-        <v>877.0895267649142</v>
+        <v>952.4539889341102</v>
       </c>
       <c r="AD17" t="n">
-        <v>708667.1190550131</v>
+        <v>769559.7812688324</v>
       </c>
       <c r="AE17" t="n">
-        <v>969629.6164778469</v>
+        <v>1052945.643313455</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.718401848471534e-06</v>
+        <v>3.179493322071588e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.8427734375</v>
       </c>
       <c r="AH17" t="n">
-        <v>877089.5267649143</v>
+        <v>952453.9889341102</v>
       </c>
     </row>
     <row r="18">
@@ -6873,28 +6873,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>697.8167525590135</v>
+        <v>758.7094147728327</v>
       </c>
       <c r="AB18" t="n">
-        <v>954.7836663536341</v>
+        <v>1038.099693189242</v>
       </c>
       <c r="AC18" t="n">
-        <v>863.6604532841345</v>
+        <v>939.0249154533302</v>
       </c>
       <c r="AD18" t="n">
-        <v>697816.7525590134</v>
+        <v>758709.4147728326</v>
       </c>
       <c r="AE18" t="n">
-        <v>954783.6663536341</v>
+        <v>1038099.693189242</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.722790052050896e-06</v>
+        <v>3.187612647588424e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.819986979166666</v>
       </c>
       <c r="AH18" t="n">
-        <v>863660.4532841345</v>
+        <v>939024.9154533303</v>
       </c>
     </row>
     <row r="19">
@@ -6979,28 +6979,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>698.6228088598717</v>
+        <v>759.5154710736909</v>
       </c>
       <c r="AB19" t="n">
-        <v>955.8865481451627</v>
+        <v>1039.202574980771</v>
       </c>
       <c r="AC19" t="n">
-        <v>864.6580775853839</v>
+        <v>940.0225397545795</v>
       </c>
       <c r="AD19" t="n">
-        <v>698622.8088598717</v>
+        <v>759515.4710736909</v>
       </c>
       <c r="AE19" t="n">
-        <v>955886.5481451626</v>
+        <v>1039202.574980771</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.72344361428612e-06</v>
+        <v>3.188821908835612e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.818359375</v>
       </c>
       <c r="AH19" t="n">
-        <v>864658.0775853839</v>
+        <v>940022.5397545795</v>
       </c>
     </row>
     <row r="20">
@@ -7085,28 +7085,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>700.4725896713809</v>
+        <v>761.3652518852002</v>
       </c>
       <c r="AB20" t="n">
-        <v>958.4174998580394</v>
+        <v>1041.733526693647</v>
       </c>
       <c r="AC20" t="n">
-        <v>866.9474788189968</v>
+        <v>942.3119409881925</v>
       </c>
       <c r="AD20" t="n">
-        <v>700472.5896713809</v>
+        <v>761365.2518852003</v>
       </c>
       <c r="AE20" t="n">
-        <v>958417.4998580394</v>
+        <v>1041733.526693647</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.72316351618531e-06</v>
+        <v>3.188303654015389e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.818359375</v>
       </c>
       <c r="AH20" t="n">
-        <v>866947.4788189968</v>
+        <v>942311.9409881926</v>
       </c>
     </row>
     <row r="21">
@@ -7191,28 +7191,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>703.2965696476082</v>
+        <v>764.1892318614274</v>
       </c>
       <c r="AB21" t="n">
-        <v>962.2813938467174</v>
+        <v>1045.597420682325</v>
       </c>
       <c r="AC21" t="n">
-        <v>870.4426081884046</v>
+        <v>945.8070703576002</v>
       </c>
       <c r="AD21" t="n">
-        <v>703296.5696476082</v>
+        <v>764189.2318614274</v>
       </c>
       <c r="AE21" t="n">
-        <v>962281.3938467174</v>
+        <v>1045597.420682325</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.723070150151707e-06</v>
+        <v>3.188130902408647e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.819986979166666</v>
       </c>
       <c r="AH21" t="n">
-        <v>870442.6081884046</v>
+        <v>945807.0703576002</v>
       </c>
     </row>
   </sheetData>
@@ -7488,28 +7488,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1932.554721680473</v>
+        <v>2026.57916739619</v>
       </c>
       <c r="AB2" t="n">
-        <v>2644.206628500314</v>
+        <v>2772.855023194348</v>
       </c>
       <c r="AC2" t="n">
-        <v>2391.847259043555</v>
+        <v>2508.217631507146</v>
       </c>
       <c r="AD2" t="n">
-        <v>1932554.721680473</v>
+        <v>2026579.16739619</v>
       </c>
       <c r="AE2" t="n">
-        <v>2644206.628500314</v>
+        <v>2772855.023194348</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.593873026308784e-07</v>
+        <v>1.828740263358081e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.38671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2391847.259043555</v>
+        <v>2508217.631507146</v>
       </c>
     </row>
     <row r="3">
@@ -7594,28 +7594,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1070.918065788403</v>
+        <v>1141.329746384114</v>
       </c>
       <c r="AB3" t="n">
-        <v>1465.277343182331</v>
+        <v>1561.617710917496</v>
       </c>
       <c r="AC3" t="n">
-        <v>1325.433330078676</v>
+        <v>1412.579108331752</v>
       </c>
       <c r="AD3" t="n">
-        <v>1070918.065788403</v>
+        <v>1141329.746384114</v>
       </c>
       <c r="AE3" t="n">
-        <v>1465277.343182331</v>
+        <v>1561617.710917496</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.376058683235893e-06</v>
+        <v>2.622980220684847e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.42415364583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1325433.330078676</v>
+        <v>1412579.108331752</v>
       </c>
     </row>
     <row r="4">
@@ -7700,28 +7700,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>901.3292918279045</v>
+        <v>960.06260114547</v>
       </c>
       <c r="AB4" t="n">
-        <v>1233.238500920904</v>
+        <v>1313.600005859931</v>
       </c>
       <c r="AC4" t="n">
-        <v>1115.539949254119</v>
+        <v>1188.231864949846</v>
       </c>
       <c r="AD4" t="n">
-        <v>901329.2918279045</v>
+        <v>960062.60114547</v>
       </c>
       <c r="AE4" t="n">
-        <v>1233238.500920904</v>
+        <v>1313600.005859931</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.530596052027739e-06</v>
+        <v>2.917552295724908e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.27018229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1115539.949254119</v>
+        <v>1188231.864949846</v>
       </c>
     </row>
     <row r="5">
@@ -7806,28 +7806,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>819.1548627200125</v>
+        <v>877.9734233835986</v>
       </c>
       <c r="AB5" t="n">
-        <v>1120.803821735533</v>
+        <v>1201.28197132721</v>
       </c>
       <c r="AC5" t="n">
-        <v>1013.835878047137</v>
+        <v>1086.633305993576</v>
       </c>
       <c r="AD5" t="n">
-        <v>819154.8627200124</v>
+        <v>877973.4233835987</v>
       </c>
       <c r="AE5" t="n">
-        <v>1120803.821735533</v>
+        <v>1201281.97132721</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.611052069654994e-06</v>
+        <v>3.07091388229264e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.757486979166666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1013835.878047137</v>
+        <v>1086633.305993576</v>
       </c>
     </row>
     <row r="6">
@@ -7912,28 +7912,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>778.6184823659131</v>
+        <v>837.2664508289071</v>
       </c>
       <c r="AB6" t="n">
-        <v>1065.340157796168</v>
+        <v>1145.584895612998</v>
       </c>
       <c r="AC6" t="n">
-        <v>963.6655883504033</v>
+        <v>1036.251881014192</v>
       </c>
       <c r="AD6" t="n">
-        <v>778618.4823659131</v>
+        <v>837266.4508289071</v>
       </c>
       <c r="AE6" t="n">
-        <v>1065340.157796168</v>
+        <v>1145584.895612998</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.658475724702992e-06</v>
+        <v>3.161310687820559e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>963665.5883504032</v>
+        <v>1036251.881014192</v>
       </c>
     </row>
     <row r="7">
@@ -8018,28 +8018,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>747.9404249247235</v>
+        <v>806.5883933877176</v>
       </c>
       <c r="AB7" t="n">
-        <v>1023.365086184758</v>
+        <v>1103.609824001587</v>
       </c>
       <c r="AC7" t="n">
-        <v>925.6965586612031</v>
+        <v>998.2828513249914</v>
       </c>
       <c r="AD7" t="n">
-        <v>747940.4249247236</v>
+        <v>806588.3933877175</v>
       </c>
       <c r="AE7" t="n">
-        <v>1023365.086184758</v>
+        <v>1103609.824001587</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.692763703403682e-06</v>
+        <v>3.226668866970072e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.287109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>925696.5586612031</v>
+        <v>998282.8513249914</v>
       </c>
     </row>
     <row r="8">
@@ -8124,28 +8124,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>724.0470542273972</v>
+        <v>771.1019922668171</v>
       </c>
       <c r="AB8" t="n">
-        <v>990.6731222955552</v>
+        <v>1055.055764438445</v>
       </c>
       <c r="AC8" t="n">
-        <v>896.1246699221266</v>
+        <v>954.3627230605047</v>
       </c>
       <c r="AD8" t="n">
-        <v>724047.0542273972</v>
+        <v>771101.9922668171</v>
       </c>
       <c r="AE8" t="n">
-        <v>990673.1222955552</v>
+        <v>1055055.764438445</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.719324813664781e-06</v>
+        <v>3.277298442367583e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.143880208333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>896124.6699221266</v>
+        <v>954362.7230605046</v>
       </c>
     </row>
     <row r="9">
@@ -8230,28 +8230,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>702.4362711106747</v>
+        <v>749.4912091500947</v>
       </c>
       <c r="AB9" t="n">
-        <v>961.104295434792</v>
+        <v>1025.486937577682</v>
       </c>
       <c r="AC9" t="n">
-        <v>869.3778503968456</v>
+        <v>927.6159035352237</v>
       </c>
       <c r="AD9" t="n">
-        <v>702436.2711106747</v>
+        <v>749491.2091500948</v>
       </c>
       <c r="AE9" t="n">
-        <v>961104.2954347919</v>
+        <v>1025486.937577682</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.737676126208813e-06</v>
+        <v>3.31227887627859e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.046223958333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>869377.8503968456</v>
+        <v>927615.9035352237</v>
       </c>
     </row>
     <row r="10">
@@ -8336,28 +8336,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>674.0294470405383</v>
+        <v>732.7626668495527</v>
       </c>
       <c r="AB10" t="n">
-        <v>922.2368255214012</v>
+        <v>1002.59820799088</v>
       </c>
       <c r="AC10" t="n">
-        <v>834.2198372611521</v>
+        <v>906.9116421756528</v>
       </c>
       <c r="AD10" t="n">
-        <v>674029.4470405383</v>
+        <v>732762.6668495528</v>
       </c>
       <c r="AE10" t="n">
-        <v>922236.8255214012</v>
+        <v>1002598.20799088</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.751681075255574e-06</v>
+        <v>3.338974470579096e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.974609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>834219.8372611521</v>
+        <v>906911.6421756528</v>
       </c>
     </row>
     <row r="11">
@@ -8442,28 +8442,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>655.0996612757672</v>
+        <v>713.8328810847818</v>
       </c>
       <c r="AB11" t="n">
-        <v>896.3362575148336</v>
+        <v>976.6976399843128</v>
       </c>
       <c r="AC11" t="n">
-        <v>810.7911831134556</v>
+        <v>883.4829880279566</v>
       </c>
       <c r="AD11" t="n">
-        <v>655099.6612757671</v>
+        <v>713832.8810847817</v>
       </c>
       <c r="AE11" t="n">
-        <v>896336.2575148336</v>
+        <v>976697.6399843128</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.765686024302335e-06</v>
+        <v>3.365670064879601e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.902994791666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>810791.1831134557</v>
+        <v>883482.9880279566</v>
       </c>
     </row>
     <row r="12">
@@ -8548,28 +8548,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>640.138304035386</v>
+        <v>698.8715238444003</v>
       </c>
       <c r="AB12" t="n">
-        <v>875.8654684900463</v>
+        <v>956.2268509595256</v>
       </c>
       <c r="AC12" t="n">
-        <v>792.2740974622612</v>
+        <v>864.9659023767621</v>
       </c>
       <c r="AD12" t="n">
-        <v>640138.304035386</v>
+        <v>698871.5238444003</v>
       </c>
       <c r="AE12" t="n">
-        <v>875865.4684900463</v>
+        <v>956226.8509595256</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.773992407874896e-06</v>
+        <v>3.381503313913005e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.8623046875</v>
       </c>
       <c r="AH12" t="n">
-        <v>792274.0974622612</v>
+        <v>864965.9023767621</v>
       </c>
     </row>
     <row r="13">
@@ -8654,28 +8654,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>631.6375513006381</v>
+        <v>690.3707711096523</v>
       </c>
       <c r="AB13" t="n">
-        <v>864.2343635716215</v>
+        <v>944.5957460411006</v>
       </c>
       <c r="AC13" t="n">
-        <v>781.7530488728926</v>
+        <v>854.4448537873934</v>
       </c>
       <c r="AD13" t="n">
-        <v>631637.551300638</v>
+        <v>690370.7711096524</v>
       </c>
       <c r="AE13" t="n">
-        <v>864234.3635716216</v>
+        <v>944595.7460411006</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.77998073091558e-06</v>
+        <v>3.392917981820807e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.831380208333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>781753.0488728926</v>
+        <v>854444.8537873934</v>
       </c>
     </row>
     <row r="14">
@@ -8760,28 +8760,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>628.2200698271553</v>
+        <v>686.9532896361698</v>
       </c>
       <c r="AB14" t="n">
-        <v>859.5584146509609</v>
+        <v>939.9197971204401</v>
       </c>
       <c r="AC14" t="n">
-        <v>777.5233659544842</v>
+        <v>850.2151708689851</v>
       </c>
       <c r="AD14" t="n">
-        <v>628220.0698271553</v>
+        <v>686953.2896361698</v>
       </c>
       <c r="AE14" t="n">
-        <v>859558.4146509609</v>
+        <v>939919.7971204401</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.782395377302953e-06</v>
+        <v>3.397520670493308e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.819986979166666</v>
       </c>
       <c r="AH14" t="n">
-        <v>777523.3659544842</v>
+        <v>850215.1708689851</v>
       </c>
     </row>
     <row r="15">
@@ -8866,28 +8866,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>631.0153358956136</v>
+        <v>689.7485557046278</v>
       </c>
       <c r="AB15" t="n">
-        <v>863.3830210042609</v>
+        <v>943.7444034737401</v>
       </c>
       <c r="AC15" t="n">
-        <v>780.982957245294</v>
+        <v>853.6747621597948</v>
       </c>
       <c r="AD15" t="n">
-        <v>631015.3358956135</v>
+        <v>689748.5557046279</v>
       </c>
       <c r="AE15" t="n">
-        <v>863383.0210042609</v>
+        <v>943744.4034737401</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.782491963158448e-06</v>
+        <v>3.397704778040208e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.819986979166666</v>
       </c>
       <c r="AH15" t="n">
-        <v>780982.957245294</v>
+        <v>853674.7621597948</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>773.3560783941255</v>
+        <v>836.1367333412707</v>
       </c>
       <c r="AB2" t="n">
-        <v>1058.13990452109</v>
+        <v>1144.039166306796</v>
       </c>
       <c r="AC2" t="n">
-        <v>957.1525171422797</v>
+        <v>1034.853673943529</v>
       </c>
       <c r="AD2" t="n">
-        <v>773356.0783941254</v>
+        <v>836136.7333412707</v>
       </c>
       <c r="AE2" t="n">
-        <v>1058139.90452109</v>
+        <v>1144039.166306796</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.523194594636568e-06</v>
+        <v>3.244005862081011e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.51692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>957152.5171422798</v>
+        <v>1034853.673943529</v>
       </c>
     </row>
     <row r="3">
@@ -9269,28 +9269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>560.0683563238831</v>
+        <v>612.3855687798376</v>
       </c>
       <c r="AB3" t="n">
-        <v>766.3102335943823</v>
+        <v>837.892951749137</v>
       </c>
       <c r="AC3" t="n">
-        <v>693.1746604233015</v>
+        <v>757.9256244243425</v>
       </c>
       <c r="AD3" t="n">
-        <v>560068.3563238831</v>
+        <v>612385.5687798376</v>
       </c>
       <c r="AE3" t="n">
-        <v>766310.2335943823</v>
+        <v>837892.9517491369</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.814727983053176e-06</v>
+        <v>3.864895684265199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.666341145833334</v>
       </c>
       <c r="AH3" t="n">
-        <v>693174.6604233015</v>
+        <v>757925.6244243424</v>
       </c>
     </row>
     <row r="4">
@@ -9375,28 +9375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>496.3305869603286</v>
+        <v>538.1844464336432</v>
       </c>
       <c r="AB4" t="n">
-        <v>679.1014056392376</v>
+        <v>736.3677026325897</v>
       </c>
       <c r="AC4" t="n">
-        <v>614.2889206098371</v>
+        <v>666.0898025918963</v>
       </c>
       <c r="AD4" t="n">
-        <v>496330.5869603286</v>
+        <v>538184.4464336432</v>
       </c>
       <c r="AE4" t="n">
-        <v>679101.4056392376</v>
+        <v>736367.7026325897</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.917222715912397e-06</v>
+        <v>4.083182642083005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.148763020833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>614288.920609837</v>
+        <v>666089.8025918963</v>
       </c>
     </row>
     <row r="5">
@@ -9481,28 +9481,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>476.8572803784358</v>
+        <v>518.7111398517503</v>
       </c>
       <c r="AB5" t="n">
-        <v>652.4571684722378</v>
+        <v>709.72346546559</v>
       </c>
       <c r="AC5" t="n">
-        <v>590.1875720426339</v>
+        <v>641.9884540246933</v>
       </c>
       <c r="AD5" t="n">
-        <v>476857.2803784358</v>
+        <v>518711.1398517503</v>
       </c>
       <c r="AE5" t="n">
-        <v>652457.1684722378</v>
+        <v>709723.46546559</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.944597754972589e-06</v>
+        <v>4.141484311153165e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.020182291666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>590187.5720426339</v>
+        <v>641988.4540246932</v>
       </c>
     </row>
     <row r="6">
@@ -9587,28 +9587,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>478.7782325145471</v>
+        <v>520.6320919878617</v>
       </c>
       <c r="AB6" t="n">
-        <v>655.0854999312924</v>
+        <v>712.3517969246446</v>
       </c>
       <c r="AC6" t="n">
-        <v>592.5650592361228</v>
+        <v>644.3659412181821</v>
       </c>
       <c r="AD6" t="n">
-        <v>478778.2325145471</v>
+        <v>520632.0919878617</v>
       </c>
       <c r="AE6" t="n">
-        <v>655085.4999312924</v>
+        <v>712351.7969246446</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.947184372836544e-06</v>
+        <v>4.146993130277905e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.0087890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>592565.0592361228</v>
+        <v>644365.9412181821</v>
       </c>
     </row>
   </sheetData>
@@ -9884,28 +9884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1083.577446870447</v>
+        <v>1160.294678339277</v>
       </c>
       <c r="AB2" t="n">
-        <v>1482.59846687126</v>
+        <v>1587.566367492299</v>
       </c>
       <c r="AC2" t="n">
-        <v>1341.101350033084</v>
+        <v>1436.051261542225</v>
       </c>
       <c r="AD2" t="n">
-        <v>1083577.446870447</v>
+        <v>1160294.678339277</v>
       </c>
       <c r="AE2" t="n">
-        <v>1482598.46687126</v>
+        <v>1587566.367492299</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.297275094801728e-06</v>
+        <v>2.633916951522435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.93619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1341101.350033084</v>
+        <v>1436051.261542225</v>
       </c>
     </row>
     <row r="3">
@@ -9990,28 +9990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>731.6449895210776</v>
+        <v>786.4187184060587</v>
       </c>
       <c r="AB3" t="n">
-        <v>1001.068952561617</v>
+        <v>1076.012784868422</v>
       </c>
       <c r="AC3" t="n">
-        <v>905.5283367382348</v>
+        <v>973.3196348740078</v>
       </c>
       <c r="AD3" t="n">
-        <v>731644.9895210776</v>
+        <v>786418.7184060587</v>
       </c>
       <c r="AE3" t="n">
-        <v>1001068.952561617</v>
+        <v>1076012.784868422</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.641338597532087e-06</v>
+        <v>3.332484815711783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.224609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>905528.3367382347</v>
+        <v>973319.6348740078</v>
       </c>
     </row>
     <row r="4">
@@ -10096,28 +10096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>637.5464044826141</v>
+        <v>692.4053847136159</v>
       </c>
       <c r="AB4" t="n">
-        <v>872.3191171754063</v>
+        <v>947.3795941348607</v>
       </c>
       <c r="AC4" t="n">
-        <v>789.0662049397549</v>
+        <v>856.9630153262405</v>
       </c>
       <c r="AD4" t="n">
-        <v>637546.4044826141</v>
+        <v>692405.384713616</v>
       </c>
       <c r="AE4" t="n">
-        <v>872319.1171754063</v>
+        <v>947379.5941348607</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.760838028057853e-06</v>
+        <v>3.575109974415844e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.529622395833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>789066.2049397549</v>
+        <v>856963.0153262404</v>
       </c>
     </row>
     <row r="5">
@@ -10202,28 +10202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>591.2070113185453</v>
+        <v>635.0942850118977</v>
       </c>
       <c r="AB5" t="n">
-        <v>808.9155150985835</v>
+        <v>868.9640191356958</v>
       </c>
       <c r="AC5" t="n">
-        <v>731.7137536576299</v>
+        <v>786.0313127480448</v>
       </c>
       <c r="AD5" t="n">
-        <v>591207.0113185452</v>
+        <v>635094.2850118977</v>
       </c>
       <c r="AE5" t="n">
-        <v>808915.5150985834</v>
+        <v>868964.0191356958</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.825175944061373e-06</v>
+        <v>3.705738187557634e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.1943359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>731713.7536576299</v>
+        <v>786031.3127480448</v>
       </c>
     </row>
     <row r="6">
@@ -10308,28 +10308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>558.9050963971375</v>
+        <v>602.79237009049</v>
       </c>
       <c r="AB6" t="n">
-        <v>764.7186100432027</v>
+        <v>824.7671140803151</v>
       </c>
       <c r="AC6" t="n">
-        <v>691.7349391899889</v>
+        <v>746.0524982804039</v>
       </c>
       <c r="AD6" t="n">
-        <v>558905.0963971375</v>
+        <v>602792.37009049</v>
       </c>
       <c r="AE6" t="n">
-        <v>764718.6100432028</v>
+        <v>824767.1140803151</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.861881549986458e-06</v>
+        <v>3.780263257875706e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.013671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>691734.939189989</v>
+        <v>746052.4982804039</v>
       </c>
     </row>
     <row r="7">
@@ -10414,28 +10414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>525.7256985722543</v>
+        <v>580.4993379486843</v>
       </c>
       <c r="AB7" t="n">
-        <v>719.3210941674733</v>
+        <v>794.2648040047304</v>
       </c>
       <c r="AC7" t="n">
-        <v>650.6700985136255</v>
+        <v>718.4612858681719</v>
       </c>
       <c r="AD7" t="n">
-        <v>525725.6985722543</v>
+        <v>580499.3379486843</v>
       </c>
       <c r="AE7" t="n">
-        <v>719321.0941674734</v>
+        <v>794264.8040047304</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.88332752198763e-06</v>
+        <v>3.823805995589636e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.9111328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>650670.0985136254</v>
+        <v>718461.285868172</v>
       </c>
     </row>
     <row r="8">
@@ -10520,28 +10520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>524.8247682547776</v>
+        <v>579.5984076312078</v>
       </c>
       <c r="AB8" t="n">
-        <v>718.0884015608614</v>
+        <v>793.0321113981184</v>
       </c>
       <c r="AC8" t="n">
-        <v>649.5550523592937</v>
+        <v>717.3462397138401</v>
       </c>
       <c r="AD8" t="n">
-        <v>524824.7682547776</v>
+        <v>579598.4076312078</v>
       </c>
       <c r="AE8" t="n">
-        <v>718088.4015608614</v>
+        <v>793032.1113981184</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.88528652904543e-06</v>
+        <v>3.827783457207735e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.9013671875</v>
       </c>
       <c r="AH8" t="n">
-        <v>649555.0523592937</v>
+        <v>717346.2397138401</v>
       </c>
     </row>
   </sheetData>
@@ -10817,28 +10817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>578.8132827732811</v>
+        <v>639.0068717006702</v>
       </c>
       <c r="AB2" t="n">
-        <v>791.957868930239</v>
+        <v>874.317392854417</v>
       </c>
       <c r="AC2" t="n">
-        <v>716.3745214393863</v>
+        <v>790.8737679925586</v>
       </c>
       <c r="AD2" t="n">
-        <v>578813.2827732811</v>
+        <v>639006.8717006702</v>
       </c>
       <c r="AE2" t="n">
-        <v>791957.868930239</v>
+        <v>874317.392854417</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.71595096416553e-06</v>
+        <v>3.821087630719982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.61686197916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>716374.5214393863</v>
+        <v>790873.7679925585</v>
       </c>
     </row>
     <row r="3">
@@ -10923,28 +10923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.9706989619636</v>
+        <v>493.0325482463388</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.0920528077581</v>
+        <v>674.5888835715575</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.2474779433237</v>
+        <v>610.2070673149318</v>
       </c>
       <c r="AD3" t="n">
-        <v>442970.6989619636</v>
+        <v>493032.5482463388</v>
       </c>
       <c r="AE3" t="n">
-        <v>606092.0528077581</v>
+        <v>674588.8835715575</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.959631671862096e-06</v>
+        <v>4.363716970059669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>548247.4779433237</v>
+        <v>610207.0673149318</v>
       </c>
     </row>
     <row r="4">
@@ -11029,28 +11029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>431.4171635526121</v>
+        <v>471.6032062491371</v>
       </c>
       <c r="AB4" t="n">
-        <v>590.2839959546744</v>
+        <v>645.2683124551398</v>
       </c>
       <c r="AC4" t="n">
-        <v>533.9481198495512</v>
+        <v>583.6848103541851</v>
       </c>
       <c r="AD4" t="n">
-        <v>431417.1635526121</v>
+        <v>471603.2062491371</v>
       </c>
       <c r="AE4" t="n">
-        <v>590283.9959546744</v>
+        <v>645268.3124551398</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.982578178558374e-06</v>
+        <v>4.414814358467863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.189453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>533948.1198495511</v>
+        <v>583684.8103541851</v>
       </c>
     </row>
   </sheetData>
@@ -11326,28 +11326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2123.173630427526</v>
+        <v>2218.191562556814</v>
       </c>
       <c r="AB2" t="n">
-        <v>2905.019828960772</v>
+        <v>3035.027555595555</v>
       </c>
       <c r="AC2" t="n">
-        <v>2627.768813705693</v>
+        <v>2745.368785377328</v>
       </c>
       <c r="AD2" t="n">
-        <v>2123173.630427526</v>
+        <v>2218191.562556814</v>
       </c>
       <c r="AE2" t="n">
-        <v>2905019.828960773</v>
+        <v>3035027.555595555</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.116204385678212e-07</v>
+        <v>1.723658804818045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.08984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2627768.813705693</v>
+        <v>2745368.785377328</v>
       </c>
     </row>
     <row r="3">
@@ -11432,28 +11432,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1129.957733171686</v>
+        <v>1201.221115137237</v>
       </c>
       <c r="AB3" t="n">
-        <v>1546.058020742436</v>
+        <v>1643.563723866229</v>
       </c>
       <c r="AC3" t="n">
-        <v>1398.504413148838</v>
+        <v>1486.70430881661</v>
       </c>
       <c r="AD3" t="n">
-        <v>1129957.733171686</v>
+        <v>1201221.115137237</v>
       </c>
       <c r="AE3" t="n">
-        <v>1546058.020742436</v>
+        <v>1643563.723866229</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.338140878956125e-06</v>
+        <v>2.53010815742926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.64225260416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1398504.413148838</v>
+        <v>1486704.30881661</v>
       </c>
     </row>
     <row r="4">
@@ -11538,28 +11538,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>944.3642075643714</v>
+        <v>1003.66510785631</v>
       </c>
       <c r="AB4" t="n">
-        <v>1292.120771198026</v>
+        <v>1373.258879148537</v>
       </c>
       <c r="AC4" t="n">
-        <v>1168.802578297778</v>
+        <v>1242.196979103542</v>
       </c>
       <c r="AD4" t="n">
-        <v>944364.2075643714</v>
+        <v>1003665.10785631</v>
       </c>
       <c r="AE4" t="n">
-        <v>1292120.771198026</v>
+        <v>1373258.879148537</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.497607452943315e-06</v>
+        <v>2.831621761883991e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.40201822916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1168802.578297778</v>
+        <v>1242196.979103542</v>
       </c>
     </row>
     <row r="5">
@@ -11644,28 +11644,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>856.707815213275</v>
+        <v>916.0939668512344</v>
       </c>
       <c r="AB5" t="n">
-        <v>1172.185428056154</v>
+        <v>1253.440180659314</v>
       </c>
       <c r="AC5" t="n">
-        <v>1060.313695975055</v>
+        <v>1133.813609031531</v>
       </c>
       <c r="AD5" t="n">
-        <v>856707.815213275</v>
+        <v>916093.9668512344</v>
       </c>
       <c r="AE5" t="n">
-        <v>1172185.428056154</v>
+        <v>1253440.180659314</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.580403723350829e-06</v>
+        <v>2.988169941867991e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.8583984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1060313.695975055</v>
+        <v>1133813.609031531</v>
       </c>
     </row>
     <row r="6">
@@ -11750,28 +11750,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>811.4568794304826</v>
+        <v>870.8430310684417</v>
       </c>
       <c r="AB6" t="n">
-        <v>1110.271101387744</v>
+        <v>1191.525853990905</v>
       </c>
       <c r="AC6" t="n">
-        <v>1004.308385746575</v>
+        <v>1077.808298803051</v>
       </c>
       <c r="AD6" t="n">
-        <v>811456.8794304825</v>
+        <v>870843.0310684417</v>
       </c>
       <c r="AE6" t="n">
-        <v>1110271.101387744</v>
+        <v>1191525.853990905</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.631612977302297e-06</v>
+        <v>3.084994538736707e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.547526041666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1004308.385746575</v>
+        <v>1077808.298803051</v>
       </c>
     </row>
     <row r="7">
@@ -11856,28 +11856,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>779.3938371639869</v>
+        <v>838.609396601354</v>
       </c>
       <c r="AB7" t="n">
-        <v>1066.401032437132</v>
+        <v>1147.422373265445</v>
       </c>
       <c r="AC7" t="n">
-        <v>964.6252146045805</v>
+        <v>1037.913992378406</v>
       </c>
       <c r="AD7" t="n">
-        <v>779393.8371639869</v>
+        <v>838609.396601354</v>
       </c>
       <c r="AE7" t="n">
-        <v>1066401.032437132</v>
+        <v>1147422.373265445</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.667890187110908e-06</v>
+        <v>3.153586169041835e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.3408203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>964625.2146045805</v>
+        <v>1037913.992378406</v>
       </c>
     </row>
     <row r="8">
@@ -11962,28 +11962,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>755.5101623828343</v>
+        <v>803.0191732017528</v>
       </c>
       <c r="AB8" t="n">
-        <v>1033.722334928192</v>
+        <v>1098.726259480269</v>
       </c>
       <c r="AC8" t="n">
-        <v>935.0653261210542</v>
+        <v>993.8653673474619</v>
       </c>
       <c r="AD8" t="n">
-        <v>755510.1623828344</v>
+        <v>803019.1732017528</v>
       </c>
       <c r="AE8" t="n">
-        <v>1033722.334928192</v>
+        <v>1098726.259480269</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.693734109665854e-06</v>
+        <v>3.202450918863431e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.197591145833334</v>
       </c>
       <c r="AH8" t="n">
-        <v>935065.3261210542</v>
+        <v>993865.3673474619</v>
       </c>
     </row>
     <row r="9">
@@ -12068,28 +12068,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>736.0334163664428</v>
+        <v>783.5424271853612</v>
       </c>
       <c r="AB9" t="n">
-        <v>1007.073391775174</v>
+        <v>1072.077316327251</v>
       </c>
       <c r="AC9" t="n">
-        <v>910.9597207005334</v>
+        <v>969.7597619269411</v>
       </c>
       <c r="AD9" t="n">
-        <v>736033.4163664428</v>
+        <v>783542.4271853613</v>
       </c>
       <c r="AE9" t="n">
-        <v>1007073.391775174</v>
+        <v>1072077.316327251</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.712399164844427e-06</v>
+        <v>3.237742127067915e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.098307291666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>910959.7207005334</v>
+        <v>969759.7619269411</v>
       </c>
     </row>
     <row r="10">
@@ -12174,28 +12174,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>717.9425061443128</v>
+        <v>765.4515169632314</v>
       </c>
       <c r="AB10" t="n">
-        <v>982.3206102946251</v>
+        <v>1047.324534846702</v>
       </c>
       <c r="AC10" t="n">
-        <v>888.5693099437409</v>
+        <v>947.3693511701487</v>
       </c>
       <c r="AD10" t="n">
-        <v>717942.5061443128</v>
+        <v>765451.5169632314</v>
       </c>
       <c r="AE10" t="n">
-        <v>982320.6102946252</v>
+        <v>1047324.534846702</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.72780980014571e-06</v>
+        <v>3.266879996405978e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.016927083333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>888569.309943741</v>
+        <v>947369.3511701487</v>
       </c>
     </row>
     <row r="11">
@@ -12280,28 +12280,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>686.8972547159776</v>
+        <v>746.1980654993654</v>
       </c>
       <c r="AB11" t="n">
-        <v>939.8431276705468</v>
+        <v>1020.98111315151</v>
       </c>
       <c r="AC11" t="n">
-        <v>850.1458186437833</v>
+        <v>923.5401086683211</v>
       </c>
       <c r="AD11" t="n">
-        <v>686897.2547159776</v>
+        <v>746198.0654993653</v>
       </c>
       <c r="AE11" t="n">
-        <v>939843.1276705468</v>
+        <v>1020981.11315151</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.740827479654868e-06</v>
+        <v>3.29149335187167e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.948567708333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>850145.8186437833</v>
+        <v>923540.108668321</v>
       </c>
     </row>
     <row r="12">
@@ -12386,28 +12386,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>671.9161951990798</v>
+        <v>731.2170059824673</v>
       </c>
       <c r="AB12" t="n">
-        <v>919.3453811218266</v>
+        <v>1000.483366602789</v>
       </c>
       <c r="AC12" t="n">
-        <v>831.6043482569048</v>
+        <v>904.9986382814426</v>
       </c>
       <c r="AD12" t="n">
-        <v>671916.1951990798</v>
+        <v>731217.0059824673</v>
       </c>
       <c r="AE12" t="n">
-        <v>919345.3811218266</v>
+        <v>1000483.366602789</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.749920711664942e-06</v>
+        <v>3.308686504586676e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.902994791666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>831604.3482569049</v>
+        <v>904998.6382814426</v>
       </c>
     </row>
     <row r="13">
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>660.2363932912662</v>
+        <v>719.5372040746538</v>
       </c>
       <c r="AB13" t="n">
-        <v>903.3645608750621</v>
+        <v>984.5025463560249</v>
       </c>
       <c r="AC13" t="n">
-        <v>817.1487150652696</v>
+        <v>890.5430050898074</v>
       </c>
       <c r="AD13" t="n">
-        <v>660236.3932912662</v>
+        <v>719537.2040746538</v>
       </c>
       <c r="AE13" t="n">
-        <v>903364.5608750621</v>
+        <v>984502.5463560249</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.759013943675016e-06</v>
+        <v>3.325879657301682e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.857421875</v>
       </c>
       <c r="AH13" t="n">
-        <v>817148.7150652696</v>
+        <v>890543.0050898073</v>
       </c>
     </row>
     <row r="14">
@@ -12598,28 +12598,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>651.2252545646485</v>
+        <v>710.5260653480361</v>
       </c>
       <c r="AB14" t="n">
-        <v>891.0351233259202</v>
+        <v>972.1731088068832</v>
       </c>
       <c r="AC14" t="n">
-        <v>805.9959817313437</v>
+        <v>879.3902717558815</v>
       </c>
       <c r="AD14" t="n">
-        <v>651225.2545646485</v>
+        <v>710526.0653480361</v>
       </c>
       <c r="AE14" t="n">
-        <v>891035.1233259202</v>
+        <v>972173.1088068832</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.76408700995432e-06</v>
+        <v>3.335471626711106e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.831380208333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>805995.9817313437</v>
+        <v>879390.2717558815</v>
       </c>
     </row>
     <row r="15">
@@ -12704,28 +12704,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>649.6997484632664</v>
+        <v>709.000559246654</v>
       </c>
       <c r="AB15" t="n">
-        <v>888.9478585774302</v>
+        <v>970.085844058393</v>
       </c>
       <c r="AC15" t="n">
-        <v>804.107922600955</v>
+        <v>877.5022126254927</v>
       </c>
       <c r="AD15" t="n">
-        <v>649699.7484632664</v>
+        <v>709000.559246654</v>
       </c>
       <c r="AE15" t="n">
-        <v>888947.8585774302</v>
+        <v>970085.844058393</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.765331346966225e-06</v>
+        <v>3.337824373924738e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.824869791666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>804107.922600955</v>
+        <v>877502.2126254927</v>
       </c>
     </row>
     <row r="16">
@@ -12810,28 +12810,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>650.7913668799874</v>
+        <v>710.0921776633751</v>
       </c>
       <c r="AB16" t="n">
-        <v>890.4414590539932</v>
+        <v>971.5794445349562</v>
       </c>
       <c r="AC16" t="n">
-        <v>805.4589759443165</v>
+        <v>878.8532659688542</v>
       </c>
       <c r="AD16" t="n">
-        <v>650791.3668799874</v>
+        <v>710092.177663375</v>
       </c>
       <c r="AE16" t="n">
-        <v>890441.4590539932</v>
+        <v>971579.4445349562</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.76523562873454e-06</v>
+        <v>3.337643393369843e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.824869791666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>805458.9759443165</v>
+        <v>878853.2659688542</v>
       </c>
     </row>
   </sheetData>
@@ -13107,28 +13107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>484.6229461236503</v>
+        <v>533.5356397016235</v>
       </c>
       <c r="AB2" t="n">
-        <v>663.0824949418337</v>
+        <v>730.007000170962</v>
       </c>
       <c r="AC2" t="n">
-        <v>599.798832266711</v>
+        <v>660.3361566459043</v>
       </c>
       <c r="AD2" t="n">
-        <v>484622.9461236502</v>
+        <v>533535.6397016235</v>
       </c>
       <c r="AE2" t="n">
-        <v>663082.4949418337</v>
+        <v>730007.000170962</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.837977251780358e-06</v>
+        <v>4.213685531350859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.14485677083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>599798.8322667109</v>
+        <v>660336.1566459043</v>
       </c>
     </row>
     <row r="3">
@@ -13213,28 +13213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>403.4414388106281</v>
+        <v>452.2687915340298</v>
       </c>
       <c r="AB3" t="n">
-        <v>552.0063751608219</v>
+        <v>618.8141132677525</v>
       </c>
       <c r="AC3" t="n">
-        <v>499.3236614612858</v>
+        <v>559.7553628085402</v>
       </c>
       <c r="AD3" t="n">
-        <v>403441.4388106281</v>
+        <v>452268.7915340298</v>
       </c>
       <c r="AE3" t="n">
-        <v>552006.3751608219</v>
+        <v>618814.1132677526</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.994569018884362e-06</v>
+        <v>4.572682609652923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.347330729166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>499323.6614612858</v>
+        <v>559755.3628085402</v>
       </c>
     </row>
     <row r="4">
@@ -13319,28 +13319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.3345763640145</v>
+        <v>456.1619290874161</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.3331377144724</v>
+        <v>624.140875821403</v>
       </c>
       <c r="AC4" t="n">
-        <v>504.142045272974</v>
+        <v>564.5737466202285</v>
       </c>
       <c r="AD4" t="n">
-        <v>407334.5763640145</v>
+        <v>456161.9290874162</v>
       </c>
       <c r="AE4" t="n">
-        <v>557333.1377144724</v>
+        <v>624140.875821403</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.994454467481945e-06</v>
+        <v>4.572419992916785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.347330729166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>504142.045272974</v>
+        <v>564573.7466202285</v>
       </c>
     </row>
   </sheetData>
@@ -13616,28 +13616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1462.853547091988</v>
+        <v>1553.930531570673</v>
       </c>
       <c r="AB2" t="n">
-        <v>2001.540759674996</v>
+        <v>2126.156307871708</v>
       </c>
       <c r="AC2" t="n">
-        <v>1810.516518751713</v>
+        <v>1923.238933927552</v>
       </c>
       <c r="AD2" t="n">
-        <v>1462853.547091988</v>
+        <v>1553930.531570673</v>
       </c>
       <c r="AE2" t="n">
-        <v>2001540.759674996</v>
+        <v>2126156.307871708</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.114549636891813e-06</v>
+        <v>2.18450188530533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1810516.518751713</v>
+        <v>1923238.933927552</v>
       </c>
     </row>
     <row r="3">
@@ -13722,28 +13722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>891.8826985996412</v>
+        <v>960.1691017450115</v>
       </c>
       <c r="AB3" t="n">
-        <v>1220.313255311714</v>
+        <v>1313.745724678699</v>
       </c>
       <c r="AC3" t="n">
-        <v>1103.848270945174</v>
+        <v>1188.363676569068</v>
       </c>
       <c r="AD3" t="n">
-        <v>891882.6985996412</v>
+        <v>960169.1017450115</v>
       </c>
       <c r="AE3" t="n">
-        <v>1220313.255311714</v>
+        <v>1313745.724678699</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.498671208177741e-06</v>
+        <v>2.937374856490916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1103848.270945174</v>
+        <v>1188363.676569068</v>
       </c>
     </row>
     <row r="4">
@@ -13828,28 +13828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>763.3099086590038</v>
+        <v>820.2863619922889</v>
       </c>
       <c r="AB4" t="n">
-        <v>1044.394291883768</v>
+        <v>1122.351988958086</v>
       </c>
       <c r="AC4" t="n">
-        <v>944.7187664829751</v>
+        <v>1015.236290362836</v>
       </c>
       <c r="AD4" t="n">
-        <v>763309.9086590038</v>
+        <v>820286.3619922888</v>
       </c>
       <c r="AE4" t="n">
-        <v>1044394.291883768</v>
+        <v>1122351.988958086</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.638089426149654e-06</v>
+        <v>3.21063263696527e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.8876953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>944718.7664829751</v>
+        <v>1015236.290362836</v>
       </c>
     </row>
     <row r="5">
@@ -13934,28 +13934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>707.4039750042507</v>
+        <v>764.2098361369434</v>
       </c>
       <c r="AB5" t="n">
-        <v>967.9013270616109</v>
+        <v>1045.625612361083</v>
       </c>
       <c r="AC5" t="n">
-        <v>875.5261828648945</v>
+        <v>945.8325714621043</v>
       </c>
       <c r="AD5" t="n">
-        <v>707403.9750042506</v>
+        <v>764209.8361369434</v>
       </c>
       <c r="AE5" t="n">
-        <v>967901.3270616109</v>
+        <v>1045625.612361083</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.710435639187186e-06</v>
+        <v>3.352430214698929e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.469401041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>875526.1828648945</v>
+        <v>945832.5714621043</v>
       </c>
     </row>
     <row r="6">
@@ -14040,28 +14040,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>672.4465466882057</v>
+        <v>729.2524078208985</v>
       </c>
       <c r="AB6" t="n">
-        <v>920.0710314267052</v>
+        <v>997.795316726177</v>
       </c>
       <c r="AC6" t="n">
-        <v>832.2607435151426</v>
+        <v>902.5671321123524</v>
       </c>
       <c r="AD6" t="n">
-        <v>672446.5466882057</v>
+        <v>729252.4078208985</v>
       </c>
       <c r="AE6" t="n">
-        <v>920071.0314267052</v>
+        <v>997795.316726177</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.752529790651939e-06</v>
+        <v>3.434934169831443e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.241536458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>832260.7435151426</v>
+        <v>902567.1321123524</v>
       </c>
     </row>
     <row r="7">
@@ -14146,28 +14146,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>644.2849753591219</v>
+        <v>689.8662275343008</v>
       </c>
       <c r="AB7" t="n">
-        <v>881.5391271334094</v>
+        <v>943.905407262413</v>
       </c>
       <c r="AC7" t="n">
-        <v>797.4062700877317</v>
+        <v>853.820399972847</v>
       </c>
       <c r="AD7" t="n">
-        <v>644284.9753591218</v>
+        <v>689866.2275343009</v>
       </c>
       <c r="AE7" t="n">
-        <v>881539.1271334094</v>
+        <v>943905.4072624129</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.783478445747774e-06</v>
+        <v>3.495593106110903e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.08203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>797406.2700877318</v>
+        <v>853820.399972847</v>
       </c>
     </row>
     <row r="8">
@@ -14252,28 +14252,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>610.3156603960042</v>
+        <v>667.2067728747176</v>
       </c>
       <c r="AB8" t="n">
-        <v>835.0608117804633</v>
+        <v>912.9017417325846</v>
       </c>
       <c r="AC8" t="n">
-        <v>755.3637799193453</v>
+        <v>825.7756807672675</v>
       </c>
       <c r="AD8" t="n">
-        <v>610315.6603960042</v>
+        <v>667206.7728747176</v>
       </c>
       <c r="AE8" t="n">
-        <v>835060.8117804633</v>
+        <v>912901.7417325845</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.805570411764737e-06</v>
+        <v>3.538893054194634e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.9697265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>755363.7799193454</v>
+        <v>825775.6807672676</v>
       </c>
     </row>
     <row r="9">
@@ -14358,28 +14358,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>590.7444750257488</v>
+        <v>647.6355875044621</v>
       </c>
       <c r="AB9" t="n">
-        <v>808.2826525371185</v>
+        <v>886.1235824892397</v>
       </c>
       <c r="AC9" t="n">
-        <v>731.1412906108027</v>
+        <v>801.5531914587248</v>
       </c>
       <c r="AD9" t="n">
-        <v>590744.4750257488</v>
+        <v>647635.5875044621</v>
       </c>
       <c r="AE9" t="n">
-        <v>808282.6525371184</v>
+        <v>886123.5824892396</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.820596929190689e-06</v>
+        <v>3.568344820684018e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.896484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>731141.2906108027</v>
+        <v>801553.1914587248</v>
       </c>
     </row>
     <row r="10">
@@ -14464,28 +14464,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>579.5820403414647</v>
+        <v>636.473152820178</v>
       </c>
       <c r="AB10" t="n">
-        <v>793.0097169502181</v>
+        <v>870.8506469023393</v>
       </c>
       <c r="AC10" t="n">
-        <v>717.3259825606166</v>
+        <v>787.7378834085387</v>
       </c>
       <c r="AD10" t="n">
-        <v>579582.0403414647</v>
+        <v>636473.1528201781</v>
       </c>
       <c r="AE10" t="n">
-        <v>793009.7169502182</v>
+        <v>870850.6469023393</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.82855799802563e-06</v>
+        <v>3.583948405579056e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.857421875</v>
       </c>
       <c r="AH10" t="n">
-        <v>717325.9825606166</v>
+        <v>787737.8834085386</v>
       </c>
     </row>
     <row r="11">
@@ -14570,28 +14570,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>580.3013306066497</v>
+        <v>637.1924430853632</v>
       </c>
       <c r="AB11" t="n">
-        <v>793.9938816238912</v>
+        <v>871.8348115760123</v>
       </c>
       <c r="AC11" t="n">
-        <v>718.216219939118</v>
+        <v>788.6281207870402</v>
       </c>
       <c r="AD11" t="n">
-        <v>580301.3306066496</v>
+        <v>637192.4430853631</v>
       </c>
       <c r="AE11" t="n">
-        <v>793993.8816238912</v>
+        <v>871834.8115760123</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.830747291955239e-06</v>
+        <v>3.588239391425192e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.84765625</v>
       </c>
       <c r="AH11" t="n">
-        <v>718216.219939118</v>
+        <v>788628.1207870402</v>
       </c>
     </row>
   </sheetData>
@@ -14867,28 +14867,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1758.274045180954</v>
+        <v>1851.441063308991</v>
       </c>
       <c r="AB2" t="n">
-        <v>2405.748118192869</v>
+        <v>2533.223342634402</v>
       </c>
       <c r="AC2" t="n">
-        <v>2176.146894281231</v>
+        <v>2291.456062214666</v>
       </c>
       <c r="AD2" t="n">
-        <v>1758274.045180954</v>
+        <v>1851441.063308991</v>
       </c>
       <c r="AE2" t="n">
-        <v>2405748.118192869</v>
+        <v>2533223.342634402</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009158816070615e-06</v>
+        <v>1.940312765117316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.72591145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2176146.894281231</v>
+        <v>2291456.062214666</v>
       </c>
     </row>
     <row r="3">
@@ -14973,28 +14973,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1013.747799048752</v>
+        <v>1071.977274887326</v>
       </c>
       <c r="AB3" t="n">
-        <v>1387.054462054979</v>
+        <v>1466.726599800485</v>
       </c>
       <c r="AC3" t="n">
-        <v>1254.675930939615</v>
+        <v>1326.744271679238</v>
       </c>
       <c r="AD3" t="n">
-        <v>1013747.799048752</v>
+        <v>1071977.274887326</v>
       </c>
       <c r="AE3" t="n">
-        <v>1387054.462054979</v>
+        <v>1466726.599800485</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.415259924180191e-06</v>
+        <v>2.721124616973704e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.21256510416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1254675.930939615</v>
+        <v>1326744.271679238</v>
       </c>
     </row>
     <row r="4">
@@ -15079,28 +15079,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>858.839533265214</v>
+        <v>916.9836682492163</v>
       </c>
       <c r="AB4" t="n">
-        <v>1175.10213873958</v>
+        <v>1254.657509362889</v>
       </c>
       <c r="AC4" t="n">
-        <v>1062.952039884483</v>
+        <v>1134.914757592168</v>
       </c>
       <c r="AD4" t="n">
-        <v>858839.5332652139</v>
+        <v>916983.6682492163</v>
       </c>
       <c r="AE4" t="n">
-        <v>1175102.13873958</v>
+        <v>1254657.509362889</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.565024942681105e-06</v>
+        <v>3.009078279507057e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.13997395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1062952.039884483</v>
+        <v>1134914.757592168</v>
       </c>
     </row>
     <row r="5">
@@ -15185,28 +15185,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>783.1700532631187</v>
+        <v>841.3994395931417</v>
       </c>
       <c r="AB5" t="n">
-        <v>1071.567817898861</v>
+        <v>1151.239833174819</v>
       </c>
       <c r="AC5" t="n">
-        <v>969.2988893134709</v>
+        <v>1041.367119271868</v>
       </c>
       <c r="AD5" t="n">
-        <v>783170.0532631187</v>
+        <v>841399.4395931417</v>
       </c>
       <c r="AE5" t="n">
-        <v>1071567.817898861</v>
+        <v>1151239.833174819</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.642247530345639e-06</v>
+        <v>3.157554386750817e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.6630859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>969298.8893134709</v>
+        <v>1041367.119271868</v>
       </c>
     </row>
     <row r="6">
@@ -15291,28 +15291,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>741.9116366157874</v>
+        <v>799.9704307452181</v>
       </c>
       <c r="AB6" t="n">
-        <v>1015.116232049102</v>
+        <v>1094.554835550214</v>
       </c>
       <c r="AC6" t="n">
-        <v>918.2349635869152</v>
+        <v>990.0920582626608</v>
       </c>
       <c r="AD6" t="n">
-        <v>741911.6366157874</v>
+        <v>799970.4307452181</v>
       </c>
       <c r="AE6" t="n">
-        <v>1015116.232049102</v>
+        <v>1094554.835550214</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.690901660704986e-06</v>
+        <v>3.25110183310768e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.384765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>918234.9635869153</v>
+        <v>990092.0582626608</v>
       </c>
     </row>
     <row r="7">
@@ -15397,28 +15397,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>712.6686555974915</v>
+        <v>759.2522541700608</v>
       </c>
       <c r="AB7" t="n">
-        <v>975.1046953105986</v>
+        <v>1038.842430000914</v>
       </c>
       <c r="AC7" t="n">
-        <v>882.0420717581899</v>
+        <v>939.6967665061335</v>
       </c>
       <c r="AD7" t="n">
-        <v>712668.6555974914</v>
+        <v>759252.2541700609</v>
       </c>
       <c r="AE7" t="n">
-        <v>975104.6953105986</v>
+        <v>1038842.430000914</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.724345281372833e-06</v>
+        <v>3.3154039856135e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.2041015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>882042.0717581898</v>
+        <v>939696.7665061335</v>
       </c>
     </row>
     <row r="8">
@@ -15503,28 +15503,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>691.2591827457049</v>
+        <v>737.8427813182742</v>
       </c>
       <c r="AB8" t="n">
-        <v>945.811310035503</v>
+        <v>1009.549044725818</v>
       </c>
       <c r="AC8" t="n">
-        <v>855.5444060602247</v>
+        <v>913.1991008081685</v>
       </c>
       <c r="AD8" t="n">
-        <v>691259.1827457049</v>
+        <v>737842.7813182742</v>
       </c>
       <c r="AE8" t="n">
-        <v>945811.310035503</v>
+        <v>1009549.044725818</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.746576026306562e-06</v>
+        <v>3.358147107395795e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.085286458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>855544.4060602246</v>
+        <v>913199.1008081685</v>
       </c>
     </row>
     <row r="9">
@@ -15609,28 +15609,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>671.1217735417725</v>
+        <v>717.7053721143417</v>
       </c>
       <c r="AB9" t="n">
-        <v>918.2584183628884</v>
+        <v>981.9961530532034</v>
       </c>
       <c r="AC9" t="n">
-        <v>830.6211236981183</v>
+        <v>888.2758184460622</v>
       </c>
       <c r="AD9" t="n">
-        <v>671121.7735417725</v>
+        <v>717705.3721143417</v>
       </c>
       <c r="AE9" t="n">
-        <v>918258.4183628884</v>
+        <v>981996.1530532035</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.7629565752051e-06</v>
+        <v>3.389642039235381e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.002278645833334</v>
       </c>
       <c r="AH9" t="n">
-        <v>830621.1236981183</v>
+        <v>888275.8184460622</v>
       </c>
     </row>
     <row r="10">
@@ -15715,28 +15715,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>640.3523129884107</v>
+        <v>698.496358463862</v>
       </c>
       <c r="AB10" t="n">
-        <v>876.1582849809836</v>
+        <v>955.7135331347441</v>
       </c>
       <c r="AC10" t="n">
-        <v>792.5389679582739</v>
+        <v>864.5015748847319</v>
       </c>
       <c r="AD10" t="n">
-        <v>640352.3129884107</v>
+        <v>698496.358463862</v>
       </c>
       <c r="AE10" t="n">
-        <v>876158.2849809836</v>
+        <v>955713.5331347442</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.778947111034625e-06</v>
+        <v>3.420387091745452e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.9208984375</v>
       </c>
       <c r="AH10" t="n">
-        <v>792538.9679582739</v>
+        <v>864501.5748847319</v>
       </c>
     </row>
     <row r="11">
@@ -15821,28 +15821,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>622.0573171541494</v>
+        <v>680.2013626296007</v>
       </c>
       <c r="AB11" t="n">
-        <v>851.1262645622949</v>
+        <v>930.6815127160554</v>
       </c>
       <c r="AC11" t="n">
-        <v>769.8959684356834</v>
+        <v>841.8585753621413</v>
       </c>
       <c r="AD11" t="n">
-        <v>622057.3171541494</v>
+        <v>680201.3626296007</v>
       </c>
       <c r="AE11" t="n">
-        <v>851126.2645622948</v>
+        <v>930681.5127160554</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.789574967165223e-06</v>
+        <v>3.440821303474707e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.8671875</v>
       </c>
       <c r="AH11" t="n">
-        <v>769895.9684356834</v>
+        <v>841858.5753621414</v>
       </c>
     </row>
     <row r="12">
@@ -15927,28 +15927,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>615.4319512678765</v>
+        <v>673.5759967433277</v>
       </c>
       <c r="AB12" t="n">
-        <v>842.061146666182</v>
+        <v>921.6163948199426</v>
       </c>
       <c r="AC12" t="n">
-        <v>761.6960126686027</v>
+        <v>833.6586195950606</v>
       </c>
       <c r="AD12" t="n">
-        <v>615431.9512678764</v>
+        <v>673575.9967433277</v>
       </c>
       <c r="AE12" t="n">
-        <v>842061.146666182</v>
+        <v>921616.3948199425</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.795132653398656e-06</v>
+        <v>3.45150708392028e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.839518229166666</v>
       </c>
       <c r="AH12" t="n">
-        <v>761696.0126686028</v>
+        <v>833658.6195950606</v>
       </c>
     </row>
     <row r="13">
@@ -16033,28 +16033,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>612.2789273999613</v>
+        <v>670.4229728754126</v>
       </c>
       <c r="AB13" t="n">
-        <v>837.7470403085048</v>
+        <v>917.3022884622654</v>
       </c>
       <c r="AC13" t="n">
-        <v>757.7936385668158</v>
+        <v>829.756245493274</v>
       </c>
       <c r="AD13" t="n">
-        <v>612278.9273999613</v>
+        <v>670422.9728754126</v>
       </c>
       <c r="AE13" t="n">
-        <v>837747.0403085048</v>
+        <v>917302.2884622654</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.797667738347239e-06</v>
+        <v>3.456381299562121e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.828125</v>
       </c>
       <c r="AH13" t="n">
-        <v>757793.6385668159</v>
+        <v>829756.2454932741</v>
       </c>
     </row>
   </sheetData>
@@ -16330,28 +16330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2537.045209452144</v>
+        <v>2657.888422991268</v>
       </c>
       <c r="AB2" t="n">
-        <v>3471.297182107885</v>
+        <v>3636.640198098446</v>
       </c>
       <c r="AC2" t="n">
-        <v>3140.001451043571</v>
+        <v>3289.564361648368</v>
       </c>
       <c r="AD2" t="n">
-        <v>2537045.209452144</v>
+        <v>2657888.422991268</v>
       </c>
       <c r="AE2" t="n">
-        <v>3471297.182107885</v>
+        <v>3636640.198098446</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.239541059955601e-07</v>
+        <v>1.534964005497054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.59049479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3140001.451043571</v>
+        <v>3289564.361648368</v>
       </c>
     </row>
     <row r="3">
@@ -16436,28 +16436,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1267.332625970683</v>
+        <v>1339.80450726088</v>
       </c>
       <c r="AB3" t="n">
-        <v>1734.020409622563</v>
+        <v>1833.179634837563</v>
       </c>
       <c r="AC3" t="n">
-        <v>1568.527935441115</v>
+        <v>1658.223543372442</v>
       </c>
       <c r="AD3" t="n">
-        <v>1267332.625970683</v>
+        <v>1339804.50726088</v>
       </c>
       <c r="AE3" t="n">
-        <v>1734020.409622563</v>
+        <v>1833179.634837563</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.265435397968738e-06</v>
+        <v>2.357410167665722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.1044921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1568527.935441115</v>
+        <v>1658223.543372442</v>
       </c>
     </row>
     <row r="4">
@@ -16542,28 +16542,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1032.426411875101</v>
+        <v>1104.898203656747</v>
       </c>
       <c r="AB4" t="n">
-        <v>1412.611364166229</v>
+        <v>1511.770466911681</v>
       </c>
       <c r="AC4" t="n">
-        <v>1277.793718182705</v>
+        <v>1367.489215332806</v>
       </c>
       <c r="AD4" t="n">
-        <v>1032426.411875101</v>
+        <v>1104898.203656747</v>
       </c>
       <c r="AE4" t="n">
-        <v>1412611.364166229</v>
+        <v>1511770.466911681</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.433990715368858e-06</v>
+        <v>2.671415939664034e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.68196614583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1277793.718182705</v>
+        <v>1367489.215332806</v>
       </c>
     </row>
     <row r="5">
@@ -16648,28 +16648,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>942.668672265161</v>
+        <v>1003.047698115988</v>
       </c>
       <c r="AB5" t="n">
-        <v>1289.800864999908</v>
+        <v>1372.414111903634</v>
       </c>
       <c r="AC5" t="n">
-        <v>1166.7040806912</v>
+        <v>1241.432835258854</v>
       </c>
       <c r="AD5" t="n">
-        <v>942668.6722651611</v>
+        <v>1003047.698115988</v>
       </c>
       <c r="AE5" t="n">
-        <v>1289800.864999908</v>
+        <v>1372414.111903633</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.523679837357866e-06</v>
+        <v>2.838499971330361e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1166704.0806912</v>
+        <v>1241432.835258854</v>
       </c>
     </row>
     <row r="6">
@@ -16754,28 +16754,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>881.6478747802975</v>
+        <v>942.1121519771452</v>
       </c>
       <c r="AB6" t="n">
-        <v>1206.309517833528</v>
+        <v>1289.039409389903</v>
       </c>
       <c r="AC6" t="n">
-        <v>1091.181030517537</v>
+        <v>1166.015297335904</v>
       </c>
       <c r="AD6" t="n">
-        <v>881647.8747802975</v>
+        <v>942112.1519771452</v>
       </c>
       <c r="AE6" t="n">
-        <v>1206309.517833528</v>
+        <v>1289039.409389903</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.576006334551873e-06</v>
+        <v>2.935980266825091e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.720052083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1091181.030517537</v>
+        <v>1166015.297335904</v>
       </c>
     </row>
     <row r="7">
@@ -16860,28 +16860,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>845.870957746676</v>
+        <v>906.1646427429316</v>
       </c>
       <c r="AB7" t="n">
-        <v>1157.357961581943</v>
+        <v>1239.854441363471</v>
       </c>
       <c r="AC7" t="n">
-        <v>1046.901342090663</v>
+        <v>1121.524473626378</v>
       </c>
       <c r="AD7" t="n">
-        <v>845870.9577466761</v>
+        <v>906164.6427429316</v>
       </c>
       <c r="AE7" t="n">
-        <v>1157357.961581943</v>
+        <v>1239854.441363471</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.614874757827278e-06</v>
+        <v>3.008389191356249e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.485677083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1046901.342090663</v>
+        <v>1121524.473626378</v>
       </c>
     </row>
     <row r="8">
@@ -16966,28 +16966,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>817.937978122599</v>
+        <v>878.2316631188546</v>
       </c>
       <c r="AB8" t="n">
-        <v>1119.138826544193</v>
+        <v>1201.63530632572</v>
       </c>
       <c r="AC8" t="n">
-        <v>1012.329787660022</v>
+        <v>1086.952919195737</v>
       </c>
       <c r="AD8" t="n">
-        <v>817937.9781225991</v>
+        <v>878231.6631188546</v>
       </c>
       <c r="AE8" t="n">
-        <v>1119138.826544193</v>
+        <v>1201635.30632572</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.64282614211976e-06</v>
+        <v>3.060460500280592e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.324544270833334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1012329.787660022</v>
+        <v>1086952.919195737</v>
       </c>
     </row>
     <row r="9">
@@ -17072,28 +17072,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>797.1718066831893</v>
+        <v>845.5433179492185</v>
       </c>
       <c r="AB9" t="n">
-        <v>1090.725634641966</v>
+        <v>1156.909670356614</v>
       </c>
       <c r="AC9" t="n">
-        <v>986.6283109147789</v>
+        <v>1046.495835150698</v>
       </c>
       <c r="AD9" t="n">
-        <v>797171.8066831892</v>
+        <v>845543.3179492184</v>
       </c>
       <c r="AE9" t="n">
-        <v>1090725.634641966</v>
+        <v>1156909.670356614</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.664283770465504e-06</v>
+        <v>3.100434434404331e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.2041015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>986628.310914779</v>
+        <v>1046495.835150698</v>
       </c>
     </row>
     <row r="10">
@@ -17178,28 +17178,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>781.4887271680982</v>
+        <v>829.8602384341275</v>
       </c>
       <c r="AB10" t="n">
-        <v>1069.267353360781</v>
+        <v>1135.45138907543</v>
       </c>
       <c r="AC10" t="n">
-        <v>967.2179778821837</v>
+        <v>1027.085502118103</v>
       </c>
       <c r="AD10" t="n">
-        <v>781488.7271680982</v>
+        <v>829860.2384341275</v>
       </c>
       <c r="AE10" t="n">
-        <v>1069267.353360781</v>
+        <v>1135451.38907543</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.680000542104711e-06</v>
+        <v>3.129713587907244e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.117838541666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>967217.9778821837</v>
+        <v>1027085.502118103</v>
       </c>
     </row>
     <row r="11">
@@ -17284,28 +17284,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>765.1698258486997</v>
+        <v>813.541337114729</v>
       </c>
       <c r="AB11" t="n">
-        <v>1046.939112636465</v>
+        <v>1113.123148351113</v>
       </c>
       <c r="AC11" t="n">
-        <v>947.0207131147131</v>
+        <v>1006.888237350633</v>
       </c>
       <c r="AD11" t="n">
-        <v>765169.8258486997</v>
+        <v>813541.337114729</v>
       </c>
       <c r="AE11" t="n">
-        <v>1046939.112636465</v>
+        <v>1113123.148351113</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.693176278808238e-06</v>
+        <v>3.154258986053399e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.046223958333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>947020.7131147131</v>
+        <v>1006888.237350633</v>
       </c>
     </row>
     <row r="12">
@@ -17390,28 +17390,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>737.6376700620323</v>
+        <v>798.0166064043086</v>
       </c>
       <c r="AB12" t="n">
-        <v>1009.268402456158</v>
+        <v>1091.881526890335</v>
       </c>
       <c r="AC12" t="n">
-        <v>912.9452426428409</v>
+        <v>987.6738864292684</v>
       </c>
       <c r="AD12" t="n">
-        <v>737637.6700620323</v>
+        <v>798016.6064043086</v>
       </c>
       <c r="AE12" t="n">
-        <v>1009268.402456158</v>
+        <v>1091881.526890335</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.704846217031362e-06</v>
+        <v>3.175999195839994e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.984375</v>
       </c>
       <c r="AH12" t="n">
-        <v>912945.2426428408</v>
+        <v>987673.8864292684</v>
       </c>
     </row>
     <row r="13">
@@ -17496,28 +17496,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>724.3569273261515</v>
+        <v>784.7358636684277</v>
       </c>
       <c r="AB13" t="n">
-        <v>991.0971043399073</v>
+        <v>1073.710228774084</v>
       </c>
       <c r="AC13" t="n">
-        <v>896.5081877152281</v>
+        <v>971.2368315016556</v>
       </c>
       <c r="AD13" t="n">
-        <v>724356.9273261515</v>
+        <v>784735.8636684277</v>
       </c>
       <c r="AE13" t="n">
-        <v>991097.1043399073</v>
+        <v>1073710.228774084</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.713786895508755e-06</v>
+        <v>3.192655001724884e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.937174479166666</v>
       </c>
       <c r="AH13" t="n">
-        <v>896508.1877152282</v>
+        <v>971236.8315016556</v>
       </c>
     </row>
     <row r="14">
@@ -17602,28 +17602,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>711.9521885346365</v>
+        <v>772.3311248769126</v>
       </c>
       <c r="AB14" t="n">
-        <v>974.1243934669044</v>
+        <v>1056.737517901081</v>
       </c>
       <c r="AC14" t="n">
-        <v>881.1553285465953</v>
+        <v>955.8839723330228</v>
       </c>
       <c r="AD14" t="n">
-        <v>711952.1885346365</v>
+        <v>772331.1248769126</v>
       </c>
       <c r="AE14" t="n">
-        <v>974124.3934669044</v>
+        <v>1056737.517901081</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.721221775505745e-06</v>
+        <v>3.206505619250214e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.899739583333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>881155.3285465953</v>
+        <v>955883.9723330229</v>
       </c>
     </row>
     <row r="15">
@@ -17708,28 +17708,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>698.2177474787023</v>
+        <v>758.5966838209783</v>
       </c>
       <c r="AB15" t="n">
-        <v>955.3323252933997</v>
+        <v>1037.945449727576</v>
       </c>
       <c r="AC15" t="n">
-        <v>864.1567489847365</v>
+        <v>938.8853927711641</v>
       </c>
       <c r="AD15" t="n">
-        <v>698217.7474787023</v>
+        <v>758596.6838209784</v>
       </c>
       <c r="AE15" t="n">
-        <v>955332.3252933996</v>
+        <v>1037945.449727576</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.727621419047458e-06</v>
+        <v>3.218427669778347e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.865559895833334</v>
       </c>
       <c r="AH15" t="n">
-        <v>864156.7489847365</v>
+        <v>938885.3927711641</v>
       </c>
     </row>
     <row r="16">
@@ -17814,28 +17814,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>687.7088304786296</v>
+        <v>748.0877668209057</v>
       </c>
       <c r="AB16" t="n">
-        <v>940.9535614332027</v>
+        <v>1023.56668586738</v>
       </c>
       <c r="AC16" t="n">
-        <v>851.150274166635</v>
+        <v>925.8789179530626</v>
       </c>
       <c r="AD16" t="n">
-        <v>687708.8304786296</v>
+        <v>748087.7668209057</v>
       </c>
       <c r="AE16" t="n">
-        <v>940953.5614332027</v>
+        <v>1023566.68586738</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.732797601323844e-06</v>
+        <v>3.228070504764336e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.839518229166666</v>
       </c>
       <c r="AH16" t="n">
-        <v>851150.274166635</v>
+        <v>925878.9179530626</v>
       </c>
     </row>
     <row r="17">
@@ -17920,28 +17920,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>680.8506829818976</v>
+        <v>741.2296193241737</v>
       </c>
       <c r="AB17" t="n">
-        <v>931.5699414680602</v>
+        <v>1014.183065902237</v>
       </c>
       <c r="AC17" t="n">
-        <v>842.6622137209723</v>
+        <v>917.3908575073999</v>
       </c>
       <c r="AD17" t="n">
-        <v>680850.6829818976</v>
+        <v>741229.6193241737</v>
       </c>
       <c r="AE17" t="n">
-        <v>931569.9414680601</v>
+        <v>1014183.065902237</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.737597333980129e-06</v>
+        <v>3.237012042660436e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.815104166666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>842662.2137209723</v>
+        <v>917390.8575073999</v>
       </c>
     </row>
     <row r="18">
@@ -18026,28 +18026,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>681.6110899671565</v>
+        <v>741.9900263094327</v>
       </c>
       <c r="AB18" t="n">
-        <v>932.61036385208</v>
+        <v>1015.223488286257</v>
       </c>
       <c r="AC18" t="n">
-        <v>843.6033396529033</v>
+        <v>918.3319834393307</v>
       </c>
       <c r="AD18" t="n">
-        <v>681611.0899671565</v>
+        <v>741990.0263094327</v>
       </c>
       <c r="AE18" t="n">
-        <v>932610.36385208</v>
+        <v>1015223.488286257</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.737503221575104e-06</v>
+        <v>3.236836718387964e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.816731770833334</v>
       </c>
       <c r="AH18" t="n">
-        <v>843603.3396529033</v>
+        <v>918331.9834393307</v>
       </c>
     </row>
     <row r="19">
@@ -18132,28 +18132,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>683.98395132909</v>
+        <v>744.3628876713663</v>
       </c>
       <c r="AB19" t="n">
-        <v>935.8570174507325</v>
+        <v>1018.47014188491</v>
       </c>
       <c r="AC19" t="n">
-        <v>846.5401371888075</v>
+        <v>921.2687809752349</v>
       </c>
       <c r="AD19" t="n">
-        <v>683983.9513290901</v>
+        <v>744362.8876713662</v>
       </c>
       <c r="AE19" t="n">
-        <v>935857.0174507325</v>
+        <v>1018470.14188491</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.737503221575104e-06</v>
+        <v>3.236836718387964e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>9</v>
+        <v>8.815104166666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>846540.1371888075</v>
+        <v>921268.7809752349</v>
       </c>
     </row>
   </sheetData>
@@ -18429,28 +18429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1205.711092464674</v>
+        <v>1283.383884687846</v>
       </c>
       <c r="AB2" t="n">
-        <v>1649.707108929449</v>
+        <v>1755.982449930941</v>
       </c>
       <c r="AC2" t="n">
-        <v>1492.261377831691</v>
+        <v>1588.393949446379</v>
       </c>
       <c r="AD2" t="n">
-        <v>1205711.092464674</v>
+        <v>1283383.884687846</v>
       </c>
       <c r="AE2" t="n">
-        <v>1649707.108929449</v>
+        <v>1755982.449930941</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.232575127603093e-06</v>
+        <v>2.470693583075258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.44401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1492261.377831691</v>
+        <v>1588393.949446379</v>
       </c>
     </row>
     <row r="3">
@@ -18535,28 +18535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>784.5267369720767</v>
+        <v>840.0439030716014</v>
       </c>
       <c r="AB3" t="n">
-        <v>1073.424092402118</v>
+        <v>1149.385128303997</v>
       </c>
       <c r="AC3" t="n">
-        <v>970.9780035834352</v>
+        <v>1039.689424830822</v>
       </c>
       <c r="AD3" t="n">
-        <v>784526.7369720767</v>
+        <v>840043.9030716014</v>
       </c>
       <c r="AE3" t="n">
-        <v>1073424.092402118</v>
+        <v>1149385.128303997</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.591270169280418e-06</v>
+        <v>3.189696845356287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.41341145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>970978.0035834352</v>
+        <v>1039689.424830822</v>
       </c>
     </row>
     <row r="4">
@@ -18641,28 +18641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>679.4211432620456</v>
+        <v>735.0235607075908</v>
       </c>
       <c r="AB4" t="n">
-        <v>929.6139821565173</v>
+        <v>1005.691662711046</v>
       </c>
       <c r="AC4" t="n">
-        <v>840.8929284209169</v>
+        <v>909.7098619190162</v>
       </c>
       <c r="AD4" t="n">
-        <v>679421.1432620456</v>
+        <v>735023.5607075908</v>
       </c>
       <c r="AE4" t="n">
-        <v>929613.9821565173</v>
+        <v>1005691.662711045</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.717928310593672e-06</v>
+        <v>3.443582754603406e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.646809895833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>840892.9284209169</v>
+        <v>909709.8619190162</v>
       </c>
     </row>
     <row r="5">
@@ -18747,28 +18747,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>630.3511614541973</v>
+        <v>685.7829866991503</v>
       </c>
       <c r="AB5" t="n">
-        <v>862.4742682322068</v>
+        <v>938.3185370118879</v>
       </c>
       <c r="AC5" t="n">
-        <v>780.1609345623623</v>
+        <v>848.7667327778105</v>
       </c>
       <c r="AD5" t="n">
-        <v>630351.1614541973</v>
+        <v>685782.9866991503</v>
       </c>
       <c r="AE5" t="n">
-        <v>862474.2682322068</v>
+        <v>938318.5370118879</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.784617283712788e-06</v>
+        <v>3.577260624825965e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.285481770833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>780160.9345623623</v>
+        <v>848766.7327778105</v>
       </c>
     </row>
     <row r="6">
@@ -18853,28 +18853,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>596.4277682405599</v>
+        <v>640.9097917055471</v>
       </c>
       <c r="AB6" t="n">
-        <v>816.0587850428241</v>
+        <v>876.9210519559948</v>
       </c>
       <c r="AC6" t="n">
-        <v>738.1752799440343</v>
+        <v>793.2289375237403</v>
       </c>
       <c r="AD6" t="n">
-        <v>596427.7682405598</v>
+        <v>640909.7917055471</v>
       </c>
       <c r="AE6" t="n">
-        <v>816058.7850428241</v>
+        <v>876921.0519559948</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.823917961001306e-06</v>
+        <v>3.656038728499107e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.085286458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>738175.2799440343</v>
+        <v>793228.9375237403</v>
       </c>
     </row>
     <row r="7">
@@ -18959,28 +18959,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>560.7191335657067</v>
+        <v>616.2362101566804</v>
       </c>
       <c r="AB7" t="n">
-        <v>767.2006557269109</v>
+        <v>843.1615691592416</v>
       </c>
       <c r="AC7" t="n">
-        <v>693.980101917217</v>
+        <v>762.6914123833775</v>
       </c>
       <c r="AD7" t="n">
-        <v>560719.1335657067</v>
+        <v>616236.2101566804</v>
       </c>
       <c r="AE7" t="n">
-        <v>767200.6557269109</v>
+        <v>843161.5691592416</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.849779028439864e-06</v>
+        <v>3.707877169776251e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>693980.101917217</v>
+        <v>762691.4123833776</v>
       </c>
     </row>
     <row r="8">
@@ -19065,28 +19065,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>542.5811867966577</v>
+        <v>598.0982633876312</v>
       </c>
       <c r="AB8" t="n">
-        <v>742.3835167677611</v>
+        <v>818.3444302000916</v>
       </c>
       <c r="AC8" t="n">
-        <v>671.5314758692549</v>
+        <v>740.2427863354155</v>
       </c>
       <c r="AD8" t="n">
-        <v>542581.1867966576</v>
+        <v>598098.2633876312</v>
       </c>
       <c r="AE8" t="n">
-        <v>742383.5167677611</v>
+        <v>818344.4302000916</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.864949497134137e-06</v>
+        <v>3.73828633414749e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.885091145833334</v>
       </c>
       <c r="AH8" t="n">
-        <v>671531.4758692549</v>
+        <v>740242.7863354156</v>
       </c>
     </row>
     <row r="9">
@@ -19171,28 +19171,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>542.8978240160164</v>
+        <v>598.41490060699</v>
       </c>
       <c r="AB9" t="n">
-        <v>742.8167537803362</v>
+        <v>818.7776672126666</v>
       </c>
       <c r="AC9" t="n">
-        <v>671.9233653494018</v>
+        <v>740.6346758155623</v>
       </c>
       <c r="AD9" t="n">
-        <v>542897.8240160164</v>
+        <v>598414.9006069901</v>
       </c>
       <c r="AE9" t="n">
-        <v>742816.7537803361</v>
+        <v>818777.6672126666</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.867393062561402e-06</v>
+        <v>3.743184454583126e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.873697916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>671923.3653494018</v>
+        <v>740634.6758155624</v>
       </c>
     </row>
   </sheetData>
@@ -19468,28 +19468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>868.6459514518214</v>
+        <v>942.9920127907825</v>
       </c>
       <c r="AB2" t="n">
-        <v>1188.519712731133</v>
+        <v>1290.243273771841</v>
       </c>
       <c r="AC2" t="n">
-        <v>1075.089059445967</v>
+        <v>1167.104266590864</v>
       </c>
       <c r="AD2" t="n">
-        <v>868645.9514518214</v>
+        <v>942992.0127907825</v>
       </c>
       <c r="AE2" t="n">
-        <v>1188519.712731133</v>
+        <v>1290243.273771841</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.441536464713444e-06</v>
+        <v>3.015784434868216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.97591145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1075089.059445967</v>
+        <v>1167104.266590864</v>
       </c>
     </row>
     <row r="3">
@@ -19574,28 +19574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>615.6834676872645</v>
+        <v>668.9097127216248</v>
       </c>
       <c r="AB3" t="n">
-        <v>842.4052825273101</v>
+        <v>915.2317791595266</v>
       </c>
       <c r="AC3" t="n">
-        <v>762.0073046861427</v>
+        <v>827.8833426924106</v>
       </c>
       <c r="AD3" t="n">
-        <v>615683.4676872646</v>
+        <v>668909.7127216249</v>
       </c>
       <c r="AE3" t="n">
-        <v>842405.2825273101</v>
+        <v>915231.7791595266</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.749952300454078e-06</v>
+        <v>3.661009650921539e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.864908854166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>762007.3046861427</v>
+        <v>827883.3426924106</v>
       </c>
     </row>
     <row r="4">
@@ -19680,28 +19680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>545.2551547526509</v>
+        <v>598.3108075864189</v>
       </c>
       <c r="AB4" t="n">
-        <v>746.0421576922915</v>
+        <v>818.6352425496611</v>
       </c>
       <c r="AC4" t="n">
-        <v>674.8409412388831</v>
+        <v>740.5058439624999</v>
       </c>
       <c r="AD4" t="n">
-        <v>545255.1547526509</v>
+        <v>598310.8075864189</v>
       </c>
       <c r="AE4" t="n">
-        <v>746042.1576922915</v>
+        <v>818635.2425496612</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.861206843676885e-06</v>
+        <v>3.893761112971035e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.274088541666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>674840.9412388832</v>
+        <v>740505.8439624999</v>
       </c>
     </row>
     <row r="5">
@@ -19786,28 +19786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>505.331358441725</v>
+        <v>547.9124439777644</v>
       </c>
       <c r="AB5" t="n">
-        <v>691.4166582660971</v>
+        <v>749.6779780414188</v>
       </c>
       <c r="AC5" t="n">
-        <v>625.4288228105545</v>
+        <v>678.1297639967954</v>
       </c>
       <c r="AD5" t="n">
-        <v>505331.358441725</v>
+        <v>547912.4439777643</v>
       </c>
       <c r="AE5" t="n">
-        <v>691416.6582660971</v>
+        <v>749677.9780414188</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.912538777823539e-06</v>
+        <v>4.001150729398068e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.026692708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>625428.8228105545</v>
+        <v>678129.7639967954</v>
       </c>
     </row>
     <row r="6">
@@ -19892,28 +19892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>485.6623098101803</v>
+        <v>538.8032139899689</v>
       </c>
       <c r="AB6" t="n">
-        <v>664.5045981912336</v>
+        <v>737.2143277012524</v>
       </c>
       <c r="AC6" t="n">
-        <v>601.0852119779225</v>
+        <v>666.8556269522517</v>
       </c>
       <c r="AD6" t="n">
-        <v>485662.3098101803</v>
+        <v>538803.2139899689</v>
       </c>
       <c r="AE6" t="n">
-        <v>664504.5981912336</v>
+        <v>737214.3277012524</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.926432338511992e-06</v>
+        <v>4.030216927232657e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.961588541666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>601085.2119779226</v>
+        <v>666855.6269522517</v>
       </c>
     </row>
   </sheetData>
@@ -36930,28 +36930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>680.7415858194414</v>
+        <v>732.0686013424624</v>
       </c>
       <c r="AB2" t="n">
-        <v>931.4206699173606</v>
+        <v>1001.64855694407</v>
       </c>
       <c r="AC2" t="n">
-        <v>842.5271884375676</v>
+        <v>906.0526244919065</v>
       </c>
       <c r="AD2" t="n">
-        <v>680741.5858194414</v>
+        <v>732068.6013424625</v>
       </c>
       <c r="AE2" t="n">
-        <v>931420.6699173605</v>
+        <v>1001648.55694407</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.613751209749664e-06</v>
+        <v>3.508062378427737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.06608072916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>842527.1884375676</v>
+        <v>906052.6244919065</v>
       </c>
     </row>
     <row r="3">
@@ -37036,28 +37036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>501.0666847988427</v>
+        <v>552.2230186127206</v>
       </c>
       <c r="AB3" t="n">
-        <v>685.5815436437828</v>
+        <v>755.5758964260972</v>
       </c>
       <c r="AC3" t="n">
-        <v>620.1506033381593</v>
+        <v>683.4647933286207</v>
       </c>
       <c r="AD3" t="n">
-        <v>501066.6847988427</v>
+        <v>552223.0186127205</v>
       </c>
       <c r="AE3" t="n">
-        <v>685581.5436437827</v>
+        <v>755575.8964260971</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.887043361730521e-06</v>
+        <v>4.102160099867909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.462890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>620150.6033381593</v>
+        <v>683464.7933286206</v>
       </c>
     </row>
     <row r="4">
@@ -37142,28 +37142,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>454.1173734971707</v>
+        <v>495.1790038172978</v>
       </c>
       <c r="AB4" t="n">
-        <v>621.3434246634025</v>
+        <v>677.52575877868</v>
       </c>
       <c r="AC4" t="n">
-        <v>562.0432802745003</v>
+        <v>612.8636512742167</v>
       </c>
       <c r="AD4" t="n">
-        <v>454117.3734971707</v>
+        <v>495179.0038172978</v>
       </c>
       <c r="AE4" t="n">
-        <v>621343.4246634025</v>
+        <v>677525.75877868</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.96318336713988e-06</v>
+        <v>4.267677489943975e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.0966796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>562043.2802745003</v>
+        <v>612863.6512742167</v>
       </c>
     </row>
     <row r="5">
@@ -37248,28 +37248,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>456.371629265019</v>
+        <v>497.4332595851461</v>
       </c>
       <c r="AB5" t="n">
-        <v>624.4277968557182</v>
+        <v>680.6101309709957</v>
       </c>
       <c r="AC5" t="n">
-        <v>564.8332843137248</v>
+        <v>615.6536553134413</v>
       </c>
       <c r="AD5" t="n">
-        <v>456371.629265019</v>
+        <v>497433.2595851461</v>
       </c>
       <c r="AE5" t="n">
-        <v>624427.7968557181</v>
+        <v>680610.1309709956</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.965597027253721e-06</v>
+        <v>4.272924438908922e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.085286458333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>564833.2843137248</v>
+        <v>615653.6553134413</v>
       </c>
     </row>
   </sheetData>
@@ -37545,28 +37545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>379.6636479890653</v>
+        <v>427.2255346942683</v>
       </c>
       <c r="AB2" t="n">
-        <v>519.4725527566635</v>
+        <v>584.5488244290742</v>
       </c>
       <c r="AC2" t="n">
-        <v>469.8948214058738</v>
+        <v>528.7603050449903</v>
       </c>
       <c r="AD2" t="n">
-        <v>379663.6479890653</v>
+        <v>427225.5346942683</v>
       </c>
       <c r="AE2" t="n">
-        <v>519472.5527566635</v>
+        <v>584548.8244290742</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.970146427688732e-06</v>
+        <v>4.686046400346296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.728190104166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>469894.8214058738</v>
+        <v>528760.3050449904</v>
       </c>
     </row>
     <row r="3">
@@ -37651,28 +37651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>374.7032437752914</v>
+        <v>422.2651304804942</v>
       </c>
       <c r="AB3" t="n">
-        <v>512.6855088737889</v>
+        <v>577.7617805461995</v>
       </c>
       <c r="AC3" t="n">
-        <v>463.7555234655048</v>
+        <v>522.6210071046215</v>
       </c>
       <c r="AD3" t="n">
-        <v>374703.2437752914</v>
+        <v>422265.1304804942</v>
       </c>
       <c r="AE3" t="n">
-        <v>512685.5088737889</v>
+        <v>577761.7805461995</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.991930964723124e-06</v>
+        <v>4.737861509070466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.622395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>463755.5234655048</v>
+        <v>522621.0071046215</v>
       </c>
     </row>
   </sheetData>
@@ -37948,28 +37948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1610.26152924484</v>
+        <v>1690.924412861466</v>
       </c>
       <c r="AB2" t="n">
-        <v>2203.230864037729</v>
+        <v>2313.597379997268</v>
       </c>
       <c r="AC2" t="n">
-        <v>1992.957602627906</v>
+        <v>2092.790893204645</v>
       </c>
       <c r="AD2" t="n">
-        <v>1610261.52924484</v>
+        <v>1690924.412861466</v>
       </c>
       <c r="AE2" t="n">
-        <v>2203230.864037729</v>
+        <v>2313597.379997268</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060691785212931e-06</v>
+        <v>2.0583553499875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.11067708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1992957.602627906</v>
+        <v>2092790.893204645</v>
       </c>
     </row>
     <row r="3">
@@ -38054,28 +38054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>957.1901274037857</v>
+        <v>1014.806498418105</v>
       </c>
       <c r="AB3" t="n">
-        <v>1309.669760561961</v>
+        <v>1388.503021238646</v>
       </c>
       <c r="AC3" t="n">
-        <v>1184.67671674698</v>
+        <v>1255.986241667859</v>
       </c>
       <c r="AD3" t="n">
-        <v>957190.1274037857</v>
+        <v>1014806.498418105</v>
       </c>
       <c r="AE3" t="n">
-        <v>1309669.760561961</v>
+        <v>1388503.021238646</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.456567839112845e-06</v>
+        <v>2.826583788103715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.00423177083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1184676.71674698</v>
+        <v>1255986.241667859</v>
       </c>
     </row>
     <row r="4">
@@ -38160,28 +38160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>817.760767288401</v>
+        <v>875.2917974481481</v>
       </c>
       <c r="AB4" t="n">
-        <v>1118.896358862852</v>
+        <v>1197.61285241734</v>
       </c>
       <c r="AC4" t="n">
-        <v>1012.110460753884</v>
+        <v>1083.314362642824</v>
       </c>
       <c r="AD4" t="n">
-        <v>817760.767288401</v>
+        <v>875291.7974481481</v>
       </c>
       <c r="AE4" t="n">
-        <v>1118896.358862852</v>
+        <v>1197612.85241734</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.599752859603014e-06</v>
+        <v>3.104445516715899e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.01953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1012110.460753884</v>
+        <v>1083314.362642824</v>
       </c>
     </row>
     <row r="5">
@@ -38266,28 +38266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>745.3243280550581</v>
+        <v>802.940609560826</v>
       </c>
       <c r="AB5" t="n">
-        <v>1019.785627033633</v>
+        <v>1098.61876524077</v>
       </c>
       <c r="AC5" t="n">
-        <v>922.4587180676592</v>
+        <v>993.7681322073111</v>
       </c>
       <c r="AD5" t="n">
-        <v>745324.3280550581</v>
+        <v>802940.609560826</v>
       </c>
       <c r="AE5" t="n">
-        <v>1019785.627033633</v>
+        <v>1098618.76524077</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.674890528539739e-06</v>
+        <v>3.250256038676763e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.5703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>922458.7180676592</v>
+        <v>993768.1322073111</v>
       </c>
     </row>
     <row r="6">
@@ -38372,28 +38372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>708.5737506239079</v>
+        <v>766.0194399290835</v>
       </c>
       <c r="AB6" t="n">
-        <v>969.5018656712842</v>
+        <v>1048.101592103574</v>
       </c>
       <c r="AC6" t="n">
-        <v>876.9739683160308</v>
+        <v>948.0722471730317</v>
       </c>
       <c r="AD6" t="n">
-        <v>708573.7506239079</v>
+        <v>766019.4399290836</v>
       </c>
       <c r="AE6" t="n">
-        <v>969501.8656712843</v>
+        <v>1048101.592103574</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.720583685009778e-06</v>
+        <v>3.338927181782714e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.314778645833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>876973.9683160308</v>
+        <v>948072.2471730317</v>
       </c>
     </row>
     <row r="7">
@@ -38478,28 +38478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>681.973382020123</v>
+        <v>728.0664967332884</v>
       </c>
       <c r="AB7" t="n">
-        <v>933.106067822146</v>
+        <v>996.1727008574038</v>
       </c>
       <c r="AC7" t="n">
-        <v>844.0517343317913</v>
+        <v>901.0993764247394</v>
       </c>
       <c r="AD7" t="n">
-        <v>681973.3820201231</v>
+        <v>728066.4967332884</v>
       </c>
       <c r="AE7" t="n">
-        <v>933106.067822146</v>
+        <v>996172.7008574038</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.751012963779697e-06</v>
+        <v>3.397977576652841e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.153645833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>844051.7343317913</v>
+        <v>901099.3764247394</v>
       </c>
     </row>
     <row r="8">
@@ -38584,28 +38584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>657.3585617769025</v>
+        <v>703.4516764900678</v>
       </c>
       <c r="AB8" t="n">
-        <v>899.4269848361439</v>
+        <v>962.4936178714019</v>
       </c>
       <c r="AC8" t="n">
-        <v>813.5869357570833</v>
+        <v>870.6345778500313</v>
       </c>
       <c r="AD8" t="n">
-        <v>657358.5617769025</v>
+        <v>703451.6764900679</v>
       </c>
       <c r="AE8" t="n">
-        <v>899426.9848361439</v>
+        <v>962493.6178714018</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.774548878426981e-06</v>
+        <v>3.443650859416467e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.031575520833334</v>
       </c>
       <c r="AH8" t="n">
-        <v>813586.9357570834</v>
+        <v>870634.5778500313</v>
       </c>
     </row>
     <row r="9">
@@ -38690,28 +38690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>625.1737507747328</v>
+        <v>682.7046914259289</v>
       </c>
       <c r="AB9" t="n">
-        <v>855.3903065293246</v>
+        <v>934.1066776142638</v>
       </c>
       <c r="AC9" t="n">
-        <v>773.7530562220005</v>
+        <v>844.9568473297139</v>
       </c>
       <c r="AD9" t="n">
-        <v>625173.7507747328</v>
+        <v>682704.6914259288</v>
       </c>
       <c r="AE9" t="n">
-        <v>855390.3065293246</v>
+        <v>934106.6776142638</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.791683812103246e-06</v>
+        <v>3.476902538081198e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.9453125</v>
       </c>
       <c r="AH9" t="n">
-        <v>773753.0562220005</v>
+        <v>844956.8473297139</v>
       </c>
     </row>
     <row r="10">
@@ -38796,28 +38796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>605.6316691892924</v>
+        <v>663.1626098404887</v>
       </c>
       <c r="AB10" t="n">
-        <v>828.6519683683325</v>
+        <v>907.3683394532713</v>
       </c>
       <c r="AC10" t="n">
-        <v>749.5665875276001</v>
+        <v>820.7703786353133</v>
       </c>
       <c r="AD10" t="n">
-        <v>605631.6691892925</v>
+        <v>663162.6098404886</v>
       </c>
       <c r="AE10" t="n">
-        <v>828651.9683683325</v>
+        <v>907368.3394532714</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.806849213173043e-06</v>
+        <v>3.506332184715501e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.870442708333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>749566.5875276001</v>
+        <v>820770.3786353132</v>
       </c>
     </row>
     <row r="11">
@@ -38902,28 +38902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>597.065135614512</v>
+        <v>654.5960762657083</v>
       </c>
       <c r="AB11" t="n">
-        <v>816.9308592025294</v>
+        <v>895.6472302874685</v>
       </c>
       <c r="AC11" t="n">
-        <v>738.9641245699012</v>
+        <v>810.1679156776145</v>
       </c>
       <c r="AD11" t="n">
-        <v>597065.135614512</v>
+        <v>654596.0762657083</v>
       </c>
       <c r="AE11" t="n">
-        <v>816930.8592025294</v>
+        <v>895647.2302874684</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.812856287622769e-06</v>
+        <v>3.517989382408309e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.841145833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>738964.1245699011</v>
+        <v>810167.9156776145</v>
       </c>
     </row>
     <row r="12">
@@ -39008,28 +39008,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>595.7279738022385</v>
+        <v>653.2589144534345</v>
       </c>
       <c r="AB12" t="n">
-        <v>815.1012954195609</v>
+        <v>893.8176665044998</v>
       </c>
       <c r="AC12" t="n">
-        <v>737.3091717865702</v>
+        <v>808.5129628942835</v>
       </c>
       <c r="AD12" t="n">
-        <v>595727.9738022385</v>
+        <v>653258.9144534345</v>
       </c>
       <c r="AE12" t="n">
-        <v>815101.2954195609</v>
+        <v>893817.6665044999</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.814924296859559e-06</v>
+        <v>3.522002516040259e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.831380208333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>737309.1717865702</v>
+        <v>808512.9628942836</v>
       </c>
     </row>
   </sheetData>
@@ -39305,28 +39305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2316.729214721009</v>
+        <v>2436.42684005311</v>
       </c>
       <c r="AB2" t="n">
-        <v>3169.851118461019</v>
+        <v>3333.626690126948</v>
       </c>
       <c r="AC2" t="n">
-        <v>2867.324976628965</v>
+        <v>3015.47003759555</v>
       </c>
       <c r="AD2" t="n">
-        <v>2316729.214721009</v>
+        <v>2436426.84005311</v>
       </c>
       <c r="AE2" t="n">
-        <v>3169851.118461019</v>
+        <v>3333626.690126948</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.664882051651888e-07</v>
+        <v>1.62587173490379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.82552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2867324.976628966</v>
+        <v>3015470.037595551</v>
       </c>
     </row>
     <row r="3">
@@ -39411,28 +39411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1193.140459204804</v>
+        <v>1265.061443429551</v>
       </c>
       <c r="AB3" t="n">
-        <v>1632.507413926095</v>
+        <v>1730.912877472283</v>
       </c>
       <c r="AC3" t="n">
-        <v>1476.703197579533</v>
+        <v>1565.716981797809</v>
       </c>
       <c r="AD3" t="n">
-        <v>1193140.459204804</v>
+        <v>1265061.443429551</v>
       </c>
       <c r="AE3" t="n">
-        <v>1632507.413926095</v>
+        <v>1730912.877472283</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.300254231428476e-06</v>
+        <v>2.439786935894397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.87825520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1476703.197579533</v>
+        <v>1565716.981797809</v>
       </c>
     </row>
     <row r="4">
@@ -39517,28 +39517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>988.289604031157</v>
+        <v>1048.309098406351</v>
       </c>
       <c r="AB4" t="n">
-        <v>1352.221436495607</v>
+        <v>1434.342756572962</v>
       </c>
       <c r="AC4" t="n">
-        <v>1223.167320451172</v>
+        <v>1297.451096998341</v>
       </c>
       <c r="AD4" t="n">
-        <v>988289.604031157</v>
+        <v>1048309.098406351</v>
       </c>
       <c r="AE4" t="n">
-        <v>1352221.436495607</v>
+        <v>1434342.756572962</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.465087219312819e-06</v>
+        <v>2.749078273483695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5419921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1223167.320451172</v>
+        <v>1297451.09699834</v>
       </c>
     </row>
     <row r="5">
@@ -39623,28 +39623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>892.6927858644221</v>
+        <v>964.4430883800259</v>
       </c>
       <c r="AB5" t="n">
-        <v>1221.421652445915</v>
+        <v>1319.593581747708</v>
       </c>
       <c r="AC5" t="n">
-        <v>1104.850884212532</v>
+        <v>1193.65342236693</v>
       </c>
       <c r="AD5" t="n">
-        <v>892692.7858644221</v>
+        <v>964443.0883800258</v>
       </c>
       <c r="AE5" t="n">
-        <v>1221421.652445915</v>
+        <v>1319593.581747708</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.552295921595899e-06</v>
+        <v>2.912716004770146e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.949544270833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1104850.884212532</v>
+        <v>1193653.42236693</v>
       </c>
     </row>
     <row r="6">
@@ -39729,28 +39729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>846.2201721462096</v>
+        <v>906.1543256668321</v>
       </c>
       <c r="AB6" t="n">
-        <v>1157.835772129637</v>
+        <v>1239.840325084794</v>
       </c>
       <c r="AC6" t="n">
-        <v>1047.333551070296</v>
+        <v>1121.511704585526</v>
       </c>
       <c r="AD6" t="n">
-        <v>846220.1721462096</v>
+        <v>906154.325666832</v>
       </c>
       <c r="AE6" t="n">
-        <v>1157835.772129637</v>
+        <v>1239840.325084794</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.603824023162507e-06</v>
+        <v>3.009402934137439e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.630533854166666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1047333.551070296</v>
+        <v>1121511.704585526</v>
       </c>
     </row>
     <row r="7">
@@ -39835,28 +39835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>813.72066653404</v>
+        <v>873.4842278540702</v>
       </c>
       <c r="AB7" t="n">
-        <v>1113.36851477407</v>
+        <v>1195.13965595438</v>
       </c>
       <c r="AC7" t="n">
-        <v>1007.110186346557</v>
+        <v>1081.077204579135</v>
       </c>
       <c r="AD7" t="n">
-        <v>813720.66653404</v>
+        <v>873484.2278540703</v>
       </c>
       <c r="AE7" t="n">
-        <v>1113368.51477407</v>
+        <v>1195139.65595438</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.639884204737666e-06</v>
+        <v>3.077065978630205e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.4189453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1007110.186346557</v>
+        <v>1081077.204579135</v>
       </c>
     </row>
     <row r="8">
@@ -39941,28 +39941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>789.6110818772808</v>
+        <v>849.3746431973109</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080.380717406885</v>
+        <v>1162.151858587195</v>
       </c>
       <c r="AC8" t="n">
-        <v>977.2706980614313</v>
+        <v>1051.23771629401</v>
       </c>
       <c r="AD8" t="n">
-        <v>789611.0818772807</v>
+        <v>849374.6431973109</v>
       </c>
       <c r="AE8" t="n">
-        <v>1080380.717406885</v>
+        <v>1162151.858587195</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.667024236133706e-06</v>
+        <v>3.127991322643181e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.264322916666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>977270.6980614313</v>
+        <v>1051237.71629401</v>
       </c>
     </row>
     <row r="9">
@@ -40047,28 +40047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>767.0561078177599</v>
+        <v>815.0035201428088</v>
       </c>
       <c r="AB9" t="n">
-        <v>1049.52000684342</v>
+        <v>1115.123771677094</v>
       </c>
       <c r="AC9" t="n">
-        <v>949.3552904008644</v>
+        <v>1008.697923994275</v>
       </c>
       <c r="AD9" t="n">
-        <v>767056.1078177599</v>
+        <v>815003.5201428088</v>
       </c>
       <c r="AE9" t="n">
-        <v>1049520.00684342</v>
+        <v>1115123.771677094</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.687047126429386e-06</v>
+        <v>3.165562118401006e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.1552734375</v>
       </c>
       <c r="AH9" t="n">
-        <v>949355.2904008644</v>
+        <v>1008697.923994275</v>
       </c>
     </row>
     <row r="10">
@@ -40153,28 +40153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>750.0175998344744</v>
+        <v>797.9650121595233</v>
       </c>
       <c r="AB10" t="n">
-        <v>1026.207168534768</v>
+        <v>1091.810933368442</v>
       </c>
       <c r="AC10" t="n">
-        <v>928.2673966606163</v>
+        <v>987.6100302540265</v>
       </c>
       <c r="AD10" t="n">
-        <v>750017.5998344744</v>
+        <v>797965.0121595233</v>
       </c>
       <c r="AE10" t="n">
-        <v>1026207.168534768</v>
+        <v>1091810.933368442</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.702515046420836e-06</v>
+        <v>3.194586003275535e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.072265625</v>
       </c>
       <c r="AH10" t="n">
-        <v>928267.3966606163</v>
+        <v>987610.0302540265</v>
       </c>
     </row>
     <row r="11">
@@ -40259,28 +40259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>733.7037400829779</v>
+        <v>781.6511524080269</v>
       </c>
       <c r="AB11" t="n">
-        <v>1003.885825906074</v>
+        <v>1069.489590739748</v>
       </c>
       <c r="AC11" t="n">
-        <v>908.076371644203</v>
+        <v>967.4190052376134</v>
       </c>
       <c r="AD11" t="n">
-        <v>733703.7400829779</v>
+        <v>781651.1524080269</v>
       </c>
       <c r="AE11" t="n">
-        <v>1003885.825906074</v>
+        <v>1069489.590739748</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.715325900401484e-06</v>
+        <v>3.218624190134806e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.00390625</v>
       </c>
       <c r="AH11" t="n">
-        <v>908076.3716442031</v>
+        <v>967419.0052376135</v>
       </c>
     </row>
     <row r="12">
@@ -40365,28 +40365,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>705.6186729878847</v>
+        <v>765.4674856539355</v>
       </c>
       <c r="AB12" t="n">
-        <v>965.4585980808529</v>
+        <v>1047.346383913812</v>
       </c>
       <c r="AC12" t="n">
-        <v>873.3165845096685</v>
+        <v>947.3891149929593</v>
       </c>
       <c r="AD12" t="n">
-        <v>705618.6729878847</v>
+        <v>765467.4856539355</v>
       </c>
       <c r="AE12" t="n">
-        <v>965458.5980808529</v>
+        <v>1047346.383913812</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.727662278308775e-06</v>
+        <v>3.241772073777068e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>8.9404296875</v>
       </c>
       <c r="AH12" t="n">
-        <v>873316.5845096685</v>
+        <v>947389.1149929593</v>
       </c>
     </row>
     <row r="13">
@@ -40471,28 +40471,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>691.9458323512275</v>
+        <v>751.7946450172784</v>
       </c>
       <c r="AB13" t="n">
-        <v>946.7508143186217</v>
+        <v>1028.638600151581</v>
       </c>
       <c r="AC13" t="n">
-        <v>856.3942453731649</v>
+        <v>930.4667758564559</v>
       </c>
       <c r="AD13" t="n">
-        <v>691945.8323512275</v>
+        <v>751794.6450172784</v>
       </c>
       <c r="AE13" t="n">
-        <v>946750.8143186216</v>
+        <v>1028638.600151581</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.736582428487893e-06</v>
+        <v>3.258509774256858e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>8.893229166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>856394.245373165</v>
+        <v>930466.7758564559</v>
       </c>
     </row>
     <row r="14">
@@ -40577,28 +40577,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>677.8156716461226</v>
+        <v>737.6644843121733</v>
       </c>
       <c r="AB14" t="n">
-        <v>927.4173050632027</v>
+        <v>1009.305090896162</v>
       </c>
       <c r="AC14" t="n">
-        <v>838.9058991063325</v>
+        <v>912.9784295896235</v>
       </c>
       <c r="AD14" t="n">
-        <v>677815.6716461226</v>
+        <v>737664.4843121733</v>
       </c>
       <c r="AE14" t="n">
-        <v>927417.3050632026</v>
+        <v>1009305.090896162</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.74350977915891e-06</v>
+        <v>3.271508201225204e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.859049479166666</v>
       </c>
       <c r="AH14" t="n">
-        <v>838905.8991063326</v>
+        <v>912978.4295896235</v>
       </c>
     </row>
     <row r="15">
@@ -40683,28 +40683,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>668.6867058632819</v>
+        <v>728.5355185293324</v>
       </c>
       <c r="AB15" t="n">
-        <v>914.9266513375734</v>
+        <v>996.8144371705329</v>
       </c>
       <c r="AC15" t="n">
-        <v>827.6073358415348</v>
+        <v>901.6798663248259</v>
       </c>
       <c r="AD15" t="n">
-        <v>668686.7058632819</v>
+        <v>728535.5185293325</v>
       </c>
       <c r="AE15" t="n">
-        <v>914926.6513375734</v>
+        <v>996814.4371705329</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.747590273389784e-06</v>
+        <v>3.279164808891491e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8.837890625</v>
       </c>
       <c r="AH15" t="n">
-        <v>827607.3358415348</v>
+        <v>901679.8663248259</v>
       </c>
     </row>
     <row r="16">
@@ -40789,28 +40789,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>662.8049849768796</v>
+        <v>722.6537976429303</v>
       </c>
       <c r="AB16" t="n">
-        <v>906.879021337586</v>
+        <v>988.7668071705452</v>
       </c>
       <c r="AC16" t="n">
-        <v>820.3277603538264</v>
+        <v>894.4002908371175</v>
       </c>
       <c r="AD16" t="n">
-        <v>662804.9849768796</v>
+        <v>722653.7976429303</v>
       </c>
       <c r="AE16" t="n">
-        <v>906879.021337586</v>
+        <v>988766.8071705452</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.751955453264672e-06</v>
+        <v>3.287355598487984e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>8.816731770833334</v>
       </c>
       <c r="AH16" t="n">
-        <v>820327.7603538265</v>
+        <v>894400.2908371175</v>
       </c>
     </row>
     <row r="17">
@@ -40895,28 +40895,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>665.1575022584835</v>
+        <v>725.0063149245343</v>
       </c>
       <c r="AB17" t="n">
-        <v>910.0978392680144</v>
+        <v>991.9856251009735</v>
       </c>
       <c r="AC17" t="n">
-        <v>823.2393788186142</v>
+        <v>897.3119093019051</v>
       </c>
       <c r="AD17" t="n">
-        <v>665157.5022584836</v>
+        <v>725006.3149245343</v>
       </c>
       <c r="AE17" t="n">
-        <v>910097.8392680143</v>
+        <v>991985.6251009735</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.751670767620657e-06</v>
+        <v>3.286821416557777e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.816731770833334</v>
       </c>
       <c r="AH17" t="n">
-        <v>823239.3788186142</v>
+        <v>897311.9093019051</v>
       </c>
     </row>
     <row r="18">
@@ -41001,28 +41001,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>668.0466725253557</v>
+        <v>727.8954851914065</v>
       </c>
       <c r="AB18" t="n">
-        <v>914.0509294883451</v>
+        <v>995.9387153213045</v>
       </c>
       <c r="AC18" t="n">
-        <v>826.8151916565134</v>
+        <v>900.8877221398044</v>
       </c>
       <c r="AD18" t="n">
-        <v>668046.6725253557</v>
+        <v>727895.4851914064</v>
       </c>
       <c r="AE18" t="n">
-        <v>914050.929488345</v>
+        <v>995938.7153213045</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.751670767620657e-06</v>
+        <v>3.286821416557777e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.816731770833334</v>
       </c>
       <c r="AH18" t="n">
-        <v>826815.1916565135</v>
+        <v>900887.7221398044</v>
       </c>
     </row>
   </sheetData>
@@ -41298,28 +41298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.3403066741126</v>
+        <v>387.0560201442589</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.0368664630504</v>
+        <v>529.5871224678419</v>
       </c>
       <c r="AC2" t="n">
-        <v>422.4635234181751</v>
+        <v>479.044070779705</v>
       </c>
       <c r="AD2" t="n">
-        <v>341340.3066741126</v>
+        <v>387056.0201442589</v>
       </c>
       <c r="AE2" t="n">
-        <v>467036.8664630504</v>
+        <v>529587.122467842</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.94217736265701e-06</v>
+        <v>4.857238193074718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.21809895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>422463.5234181751</v>
+        <v>479044.070779705</v>
       </c>
     </row>
   </sheetData>
@@ -41595,28 +41595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>979.4701048927282</v>
+        <v>1044.268535392765</v>
       </c>
       <c r="AB2" t="n">
-        <v>1340.154208685568</v>
+        <v>1428.814280000714</v>
       </c>
       <c r="AC2" t="n">
-        <v>1212.251771926862</v>
+        <v>1292.450250470883</v>
       </c>
       <c r="AD2" t="n">
-        <v>979470.1048927282</v>
+        <v>1044268.535392765</v>
       </c>
       <c r="AE2" t="n">
-        <v>1340154.208685568</v>
+        <v>1428814.280000714</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.366074215974854e-06</v>
+        <v>2.813134035520126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.451171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1212251.771926862</v>
+        <v>1292450.250470883</v>
       </c>
     </row>
     <row r="3">
@@ -41701,28 +41701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>679.5067188718915</v>
+        <v>733.4912023975857</v>
       </c>
       <c r="AB3" t="n">
-        <v>929.7310704812379</v>
+        <v>1003.595022468419</v>
       </c>
       <c r="AC3" t="n">
-        <v>840.9988420002609</v>
+        <v>907.8133220784928</v>
       </c>
       <c r="AD3" t="n">
-        <v>679506.7188718915</v>
+        <v>733491.2023975856</v>
       </c>
       <c r="AE3" t="n">
-        <v>929731.070481238</v>
+        <v>1003595.022468419</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.69371882366219e-06</v>
+        <v>3.487847156272601e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.0439453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>840998.8420002608</v>
+        <v>907813.3220784927</v>
       </c>
     </row>
     <row r="4">
@@ -41807,28 +41807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>592.6195019968338</v>
+        <v>646.5186446679563</v>
       </c>
       <c r="AB4" t="n">
-        <v>810.8481471593088</v>
+        <v>884.5953320242922</v>
       </c>
       <c r="AC4" t="n">
-        <v>733.4619380269459</v>
+        <v>800.1707950732391</v>
       </c>
       <c r="AD4" t="n">
-        <v>592619.5019968338</v>
+        <v>646518.6446679563</v>
       </c>
       <c r="AE4" t="n">
-        <v>810848.1471593089</v>
+        <v>884595.3320242922</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.808890867576526e-06</v>
+        <v>3.725019041143167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.404296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>733461.9380269458</v>
+        <v>800170.7950732391</v>
       </c>
     </row>
     <row r="5">
@@ -41913,28 +41913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>548.8090703463612</v>
+        <v>592.0649477522838</v>
       </c>
       <c r="AB5" t="n">
-        <v>750.9047817952965</v>
+        <v>810.089381576709</v>
       </c>
       <c r="AC5" t="n">
-        <v>679.2394833222331</v>
+        <v>732.7755879666151</v>
       </c>
       <c r="AD5" t="n">
-        <v>548809.0703463611</v>
+        <v>592064.9477522839</v>
       </c>
       <c r="AE5" t="n">
-        <v>750904.7817952965</v>
+        <v>810089.381576709</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.869298709121432e-06</v>
+        <v>3.849415909977276e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.099934895833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>679239.4833222331</v>
+        <v>732775.5879666151</v>
       </c>
     </row>
     <row r="6">
@@ -42019,28 +42019,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>508.4935493685673</v>
+        <v>562.4779433857103</v>
       </c>
       <c r="AB6" t="n">
-        <v>695.7433073982205</v>
+        <v>769.6071369158528</v>
       </c>
       <c r="AC6" t="n">
-        <v>629.3425426219984</v>
+        <v>696.1569119190038</v>
       </c>
       <c r="AD6" t="n">
-        <v>508493.5493685673</v>
+        <v>562477.9433857104</v>
       </c>
       <c r="AE6" t="n">
-        <v>695743.3073982205</v>
+        <v>769607.1369158528</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.899607141730468e-06</v>
+        <v>3.911829563890583e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.955078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>629342.5426219983</v>
+        <v>696156.9119190038</v>
       </c>
     </row>
     <row r="7">
@@ -42125,28 +42125,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>505.6402511659797</v>
+        <v>559.6246451831228</v>
       </c>
       <c r="AB7" t="n">
-        <v>691.8392989188075</v>
+        <v>765.7031284364399</v>
       </c>
       <c r="AC7" t="n">
-        <v>625.8111272325503</v>
+        <v>692.6254965295559</v>
       </c>
       <c r="AD7" t="n">
-        <v>505640.2511659798</v>
+        <v>559624.6451831227</v>
       </c>
       <c r="AE7" t="n">
-        <v>691839.2989188074</v>
+        <v>765703.1284364399</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.904832733559612e-06</v>
+        <v>3.922590538703222e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.9306640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>625811.1272325503</v>
+        <v>692625.4965295559</v>
       </c>
     </row>
   </sheetData>
@@ -42422,28 +42422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1324.292243798471</v>
+        <v>1414.212020719517</v>
       </c>
       <c r="AB2" t="n">
-        <v>1811.955071615531</v>
+        <v>1934.987277379487</v>
       </c>
       <c r="AC2" t="n">
-        <v>1639.024622675459</v>
+        <v>1750.314807398089</v>
       </c>
       <c r="AD2" t="n">
-        <v>1324292.243798472</v>
+        <v>1414212.020719517</v>
       </c>
       <c r="AE2" t="n">
-        <v>1811955.071615531</v>
+        <v>1934987.277379487</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.171950223784063e-06</v>
+        <v>2.321849163161314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.974609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1639024.622675459</v>
+        <v>1750314.807398089</v>
       </c>
     </row>
     <row r="3">
@@ -42528,28 +42528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>837.899925249259</v>
+        <v>905.3824283673287</v>
       </c>
       <c r="AB3" t="n">
-        <v>1146.451643261842</v>
+        <v>1238.784181145908</v>
       </c>
       <c r="AC3" t="n">
-        <v>1037.035907483919</v>
+        <v>1120.55635754186</v>
       </c>
       <c r="AD3" t="n">
-        <v>837899.925249259</v>
+        <v>905382.4283673287</v>
       </c>
       <c r="AE3" t="n">
-        <v>1146451.643261842</v>
+        <v>1238784.181145908</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543649728090607e-06</v>
+        <v>3.058254315450993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.6103515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1037035.907483919</v>
+        <v>1120556.35754186</v>
       </c>
     </row>
     <row r="4">
@@ -42634,28 +42634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>722.5622356955307</v>
+        <v>778.8687723393984</v>
       </c>
       <c r="AB4" t="n">
-        <v>988.641528074685</v>
+        <v>1065.682615579905</v>
       </c>
       <c r="AC4" t="n">
-        <v>894.2869682023357</v>
+        <v>963.9753624439028</v>
       </c>
       <c r="AD4" t="n">
-        <v>722562.2356955307</v>
+        <v>778868.7723393984</v>
       </c>
       <c r="AE4" t="n">
-        <v>988641.528074685</v>
+        <v>1065682.615579905</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.676270179275238e-06</v>
+        <v>3.320999846235453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.7705078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>894286.9682023358</v>
+        <v>963975.3624439028</v>
       </c>
     </row>
     <row r="5">
@@ -42740,28 +42740,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>669.232209097401</v>
+        <v>725.3681535406765</v>
       </c>
       <c r="AB5" t="n">
-        <v>915.6730329283997</v>
+        <v>992.4807086587725</v>
       </c>
       <c r="AC5" t="n">
-        <v>828.2824838208858</v>
+        <v>897.7597427798016</v>
       </c>
       <c r="AD5" t="n">
-        <v>669232.209097401</v>
+        <v>725368.1535406766</v>
       </c>
       <c r="AE5" t="n">
-        <v>915673.0329283997</v>
+        <v>992480.7086587725</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.747007794740181e-06</v>
+        <v>3.461144086100002e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>828282.4838208858</v>
+        <v>897759.7427798016</v>
       </c>
     </row>
     <row r="6">
@@ -42846,28 +42846,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>636.2255818636933</v>
+        <v>681.2709006873387</v>
       </c>
       <c r="AB6" t="n">
-        <v>870.5119093976172</v>
+        <v>932.1449018713415</v>
       </c>
       <c r="AC6" t="n">
-        <v>787.4314745358463</v>
+        <v>843.1823007103266</v>
       </c>
       <c r="AD6" t="n">
-        <v>636225.5818636933</v>
+        <v>681270.9006873387</v>
       </c>
       <c r="AE6" t="n">
-        <v>870511.9093976172</v>
+        <v>932144.9018713415</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.786351191108308e-06</v>
+        <v>3.539090597888109e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.168294270833334</v>
       </c>
       <c r="AH6" t="n">
-        <v>787431.4745358463</v>
+        <v>843182.3007103265</v>
       </c>
     </row>
     <row r="7">
@@ -42952,28 +42952,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>608.9976403472699</v>
+        <v>654.0429591709152</v>
       </c>
       <c r="AB7" t="n">
-        <v>833.2574386028442</v>
+        <v>894.8904310765685</v>
       </c>
       <c r="AC7" t="n">
-        <v>753.7325181467484</v>
+        <v>809.4833443212283</v>
       </c>
       <c r="AD7" t="n">
-        <v>608997.6403472699</v>
+        <v>654042.9591709152</v>
       </c>
       <c r="AE7" t="n">
-        <v>833257.4386028443</v>
+        <v>894890.4310765684</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.815431092771705e-06</v>
+        <v>3.596703237035839e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.021809895833334</v>
       </c>
       <c r="AH7" t="n">
-        <v>753732.5181467483</v>
+        <v>809483.3443212283</v>
       </c>
     </row>
     <row r="8">
@@ -43058,28 +43058,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>574.1591775799513</v>
+        <v>630.3803733692475</v>
       </c>
       <c r="AB8" t="n">
-        <v>785.5899168800954</v>
+        <v>862.5142372631174</v>
       </c>
       <c r="AC8" t="n">
-        <v>710.6143177954316</v>
+        <v>780.1970890050598</v>
       </c>
       <c r="AD8" t="n">
-        <v>574159.1775799514</v>
+        <v>630380.3733692475</v>
       </c>
       <c r="AE8" t="n">
-        <v>785589.9168800954</v>
+        <v>862514.2372631173</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.836360572169583e-06</v>
+        <v>3.638168389086801e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.917643229166666</v>
       </c>
       <c r="AH8" t="n">
-        <v>710614.3177954316</v>
+        <v>780197.0890050598</v>
       </c>
     </row>
     <row r="9">
@@ -43164,28 +43164,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>561.3343823558412</v>
+        <v>617.5555781451372</v>
       </c>
       <c r="AB9" t="n">
-        <v>768.0424662644339</v>
+        <v>844.9667866474562</v>
       </c>
       <c r="AC9" t="n">
-        <v>694.7415712385273</v>
+        <v>764.3243424481556</v>
       </c>
       <c r="AD9" t="n">
-        <v>561334.3823558412</v>
+        <v>617555.5781451373</v>
       </c>
       <c r="AE9" t="n">
-        <v>768042.4662644339</v>
+        <v>844966.7866474561</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.846523444377207e-06</v>
+        <v>3.658302910034624e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>8.868815104166666</v>
       </c>
       <c r="AH9" t="n">
-        <v>694741.5712385273</v>
+        <v>764324.3424481555</v>
       </c>
     </row>
     <row r="10">
@@ -43270,28 +43270,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>560.8787934513747</v>
+        <v>617.0999892406709</v>
       </c>
       <c r="AB10" t="n">
-        <v>767.4191094261789</v>
+        <v>844.3434298092011</v>
       </c>
       <c r="AC10" t="n">
-        <v>694.1777067020286</v>
+        <v>763.7604779116568</v>
       </c>
       <c r="AD10" t="n">
-        <v>560878.7934513747</v>
+        <v>617099.9892406709</v>
       </c>
       <c r="AE10" t="n">
-        <v>767419.109426179</v>
+        <v>844343.429809201</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.848435271822206e-06</v>
+        <v>3.662090592193125e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>9</v>
+        <v>8.860677083333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>694177.7067020285</v>
+        <v>763760.4779116568</v>
       </c>
     </row>
   </sheetData>
